--- a/corpus.xlsx
+++ b/corpus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="542">
   <si>
     <t>Judul</t>
   </si>
@@ -1898,6 +1898,552 @@
 "Dari pagi tadikan acaranya padat, banyak menerima tamu-tamu. Ini kan malam Minggu 20.30 WIB tadi selesai. Saya ngajak Jan Ethes ini untuk main-main di sini. Ya mumpung belum tutup. Inikan sebentar lagi tutup," kata Jokowi di Mal Solo Paragon, Surakarta, Sabtu (16/9/2017) malam.  Jokowi mengaku jarang bertemu dengan cucunya yang merupakan buah pernikahan anak pertamanya Gibran Rakabuming Raka dengan Selvi Ananda tersebut. "Nah ini pas ketemu, pas Jan Ethes nggak tidur saya ajak ke sini," katanya tersenyum.
 Saat ditanya apakah kangen ke cucu, Jokowi membenarkan. "Ya saya kan juga manusia biasa," katanya.
 "Nggak pernah ketemu. Kalau saya ke sini pun banyak tamu, ini tadi baru rampung. Kadang-kadang rampung anaknya (Jan Ethes) tidur. Gitu kan," tambah suami Iriana ini. </t>
+  </si>
+  <si>
+    <t>Komisoner PBB untuk Pengungsi (United Nations High Commissioner for Refugees /UNHCR) diminta bertanggung jawab atas nasib 436 pengungsi Rohingya yang ada di Medan, Sumatera Utara. Sebab, mereka sudah tinggal selama tujuh tahun di Medan.
+Kapolda Sumatera Utara (Sumut), Irjen Paulus Waterpauw berharap ratusan warga Rohingya itu segera diungsikan dari wilayah hukumnya.  "Kami imbau UNHCR tanggung jawab, jangan (biarkan) terlalu lama di sini," kata Paulus di Mapolda Sumut, Selasa 19 September 2017.
+ Paulus mengungkapkan, para pengungsi itu di bawah naungan UNHCR. Tinggal di rumah bersama yang terletak di Medan dan sekitarnya. Meski tidak pernah membuat masalah, Paulus tidak ingin warga negara asing itu menetap lama di Sumut. Dia menegaskan, UNHCR harus membawa mereka keluar dari Indonesia khususnya Sumut.
+"Ini perlu segera ditindaklanjuti. Untuk UNHCR agar mengungsikan mereka keluar dari sini. Indonesia kan hanya sebagai tempat transit saja kan?" ujar dia. Paulus bersyukur tidak ada pengungsi Rohingya yang masuk ke Sumut setelah situasi Rakhine, Myanmar memanas. Dia khawatir kehadiran pengungsi Rohingya di Sumut memicu permasalahan sosial di tengah-tengah masyarakat lokal.
+"Misal, kalau mereka kita pelihara terus, sementara di sekitar mereka tidak kita pelihara. Padahal warga negara kita sendiri," katanya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program beasiswa Online Scholarship Competition (OSC) with Avitex kembali dibuka tahun ini. Dari program tersebut diharapkan terlahir generasi Indonesia yang hebat.
+Penyelenggaraan OSC tahun-tahun sebelumnya cukup sukses. Pendaftar mencapai ribuan dari seluruh wilayah di Indonesia. Tak berlebihan kalau OSC with Avitex 2017 diyakini juga disambut antusias siswa/siswi setingkat sekolah menengah atas (SMA).
+Deputy Marketing Director Avian Brands Novi Christiana mengatakan, dari tahun ke tahun, program beasiswa online pertama di Indonesia ini selalu menunjukkan kemajuan. Pada tahun pertama, ada sekitar 5 ribu pendaftar. Tahun berikutnya, pendaftar melambung hingga 28 ribu orang.
+"Jumlah peserta meningkat lebih dari 300 persen dari 2015 ke 2016. Ini memberikan kesan yang membanggakan dan menggembirakan, karena semakin banyak keseriusan para calon mahasiswa yang menginginkan dan membutuhkan program beasiswa untuk pengembangan kariernya demi mencerdaskan generasi Indonesia hebat," kata Novi, kepada Metrotvnews.com. OSC with Avitex 2017 menargetkan 35 ribu peserta dari seluruh Indonesia yang  akan diseleksi untuk mendapatkan 240 beasiswa di 12 universitas. Novi yakin, jumlah sebanyak itu bisa tercapai sehingga sesuai dengan apa yang diharapkan, yakni mencetak lebih banyak generasi Indonesia hebat yang siap bersaing di tengah era globalisasi.
+"Untuk itu, Avitex Cat Tembok akan membantu mengkomunikasikan dengan berbagai cara, seperti roadshow, talk show ke radio anak muda, menyebar info melalui brosur dan spanduk di 40 ribu toko Avian Brands di seluruh kota di Indonesia," ujar dia.
+Semakin banyak pendaftar, lanjut Novi, artinya ada semangat untuk mengenyam pendidikan lebih tinggi. "Tentunya dengan berbagai jurusan yang telah tersedia di 12 universitas ternama di Indonesia," katanya.
+Novi percaya, generasi muda Indonesia sesungguhnya cerdas dan berprestasi. Ilmu yang diperoleh di universitas bisa menambah keterampilannya sesuai minat yang dipilih para penerima beasiswa.
+Novi mendorong generasi muda berusaha keras dan  terus memaksimalkan minatnya demi mewujudkan pendidikan yang dapat menopang harapan bangsa. "Tentu saja untuk Indonesia yang membutuhkan karakter yang dapat mengayomi di segala lapisan," papar Novi.
+Dia mengajak siswa kelas 3 SMA atau yang lulus tahun lalu, namun belum kuliah untuk mengikuti OSC with Avitex. Para pelajar mudah mengakses program ini karena didukung sistem online.
+"Universitas yang dipilih terdapat di lima kota besar, yaitu Jakarta, Bandung, Yogyakarta, Malang, dan Surabaya dengan berbagai jurusan sesuai yang diinginkan. Semua biaya perkuliahan selama empat tahun akan ditanggung OSC with Avitex 2017. Bahkan, biaya uang pangkal 100 persen gratis," jelas Novi.
+Kepada penerima beasiswa dari OSC with Avitex tahun sebelumnya, Novi berpesan agar mereka tetap fokus pada tujuan. Tetap optimistis dan menjadikan apa yang telah didapat sebagai motivasi untuk menggapai cita-cita.
+"Hargai apa yang didapat, syukuri, meski kecil. Jadikan itu sebuah batu lompatan untuk melangkah dan melangkah lagi. Jangan sampai cita-citamu dicuri. Banyak orang memiliki cita-cita yang baik, namun padam karena dicuri orang. Banyak pula yang membuang sendiri cita-citanya. Buang jauh sikap pesimistis dan lakukan apa pun yang bisa membuat diri bergerak maju," ucap Novi, memotivasi.
+ </t>
+  </si>
+  <si>
+    <t>Dewan Pimpinan Nasional Andalan Petani Tebu Rakyat Indonesia (APTRI) menyatakan telah mengadukan dugaan adanya praktik monopoli penjualan gula pasir ke Komisi Pengawas Persaingan Usaha (KPPU).  Sekretaris Jenderal DPN APTRI, M Nur Khabsyin, menyampaikan hal itu di Kudus, Jawa Tengah, Minggu (17/9/2017).
+"Kami sampaikan laporan ke KPPU bahwa saat ini ada aturan dari Kementerian Koordinator Bidang Perekonomian lewat surat nomor S-202/M.EKON/08/2017, tertulis yang membeli gula petani dan gula pabrik gula milik BUMN hanya Bulog dangan harga Rp 9.700 per kilogram," kata dia.
+Menurut dia, isi kebijakan tersebut tak masuk akal dan pihaknya menyatakan keberatan. Ada indikasi monopoli gula petani oleh Perum Bulog dengan kebijakan yang mengharuskan gula petani dan gula pabrik milik BUMN dibeli Bulog seharga Rp 9.700  per kilogramnya.
+"Kebijakan ini berdampak pada pemasaran gula tani hanya bisa dilakukan oleh Perum Bulog. Pedagang tidak bisa membeli langsung ke petani, selain melalui Bulog. Pedagang nantinya juga hanya bisa menjual gula secara eceran, tidak dalam bentuk curah lagi," ujar dia.
+Kebijakan tersebut dianggap telah merugikan petani karena petani harus menerima harga pembelian gula sebesar Rp 9.700 per kilogram.
+"Patokan harga jual gula tersebut masih di bawah biaya produksi sebesar Rp 10.600 per kilogram," kata dia.
+Menurut dia, praktik monopoli penjualan gula pasir tersebut bertentangan dengan Undang-undang nomor 5/1999 tentang Larangan Praktik Monopoli dan Persaingan Usaha Tidak Sehat. Dalam pasal 17, dijelaskan bahwa pelaku usaha dilarang melakukan penguasaan atas produksi dan atau pemasaran barang dan atau jasa yang dapat mengakibatkan terjadinya praktik monopoli dan atau persaingan usaha tidak sehat.
+Selain itu, dalam ayat 2 dijelaskan pelaku usaha patut diduga atau dianggap melakukan penguasaan atas produksi dan atau pemasaran barang dan atau jasa sebagaimana dimaksud dalam ayat 1 jika barang dan atau jasa yang bersangkutan belum ada substitusinya.
+"Pelaku usaha lain juga tidak dapat masuk ke dalam persaingan usaha barang dan atau jasa yang sama. Dengan adanya hal ini kami berharap KPPU menindaklanjuti laporan dugaan praktik monopoli ini," kata dia.</t>
+  </si>
+  <si>
+    <t>Tim goal ball putra Indonesia berhasil membungkam Laos pada hari pertama pertandingan ASEAN Para Games 2017, Malaysia, Minggu (17/9/2017). Anak asuh Hendrik Joko Prasetyo itu menang telak 22-12 ketika berlangsung di Hall 8 Malaysian International Trade and Exhibition Center (MITEC).
+“Awalnya, para pemain sempat tampil sedikit grogi. Mungkin karena ini adalah partai pertama. Namun, setelah beberapa waktu, akhirnya mereka bisa menampilkan performa terbaik,” jelas Hendrik usai pertandingan.
+Menurut Hendrik, secara keseluruhan penampilan Arief Setiawan dan kawan-kawan sudah sesuai dengan harapan. “Kami memang menargetkan kemenangan saat berhadapan dengan Laos. Syukurlah target itu bisa dicapai,” lanjutnya.
+Saat bentrok dengan Laos, Hendrik hanya menurunkan 4 pemain dari 6 personel yang menghuni skuadnya. Tim goal ball Indonesia sendiri diperkuat oleh Arief, Eka Zaelani, Amiruddin, Andi, Syafriandi, dan Susilo.
+Indonesia sendiri sedikit diuntungkan di hari pertama cabang goal ball ini. Sebab, sebelum berhadapan dengan tim Merah Putih, Laos terlebih dahulu bentrok dengan Malaysia di partai pertama. Dari sisi kebugaran, skuad asuhan Hendrik jelas lebih bugar dibanding lawan.
+Selanjutnya, tim goal ball Indonesia akan ditantang Kamboja, Senin (18/9/2017). Hendrik mengatakan jika di atas kertas kualitas timnya berada di atas Kamboja. "Hanya saja, saya berharap para pemain bisa tetap tenang. Meski musuh lebih lemah, kita tetap harus waspada dan jangan sampai lengah,” kata Hendrik.
+Tim goal ball putra sendiri sangat ingin mendobrak dominasi Thailand dan Malaysia. Pada dua even sebelumnya, Indonesia hanya meraih medali perunggu di cabang ini. “Setelah tiga kali meraih perunggu, kini kami ingin menembus babak final. Kami akan berupaya mengakhiri dominasi Thailad dan Malaysia,” tegas Hendrik.
+Cabang goal ball diikuti oleh tujuh negara, yakni juara bertahan Thailand, Malaysia, Filipina, Laos, Kamboja, Mianmar dan Indonesia. Pertandingan dimainkan 2x12 menit dengan pergantian pemain 4 kali setiap tim dan menggunakan sistem round robin</t>
+  </si>
+  <si>
+    <t>Pebalap Mercedes, Lewis Hamilton, berhasil memenangi balapan GP Singapura yang berlangsung di Sirkuit Jalan Raya Marina Bay, Minggu (17/9/2017) malam.
+Pada balapan ini, Hamilton mengungguli Daniel Ricciardo (Red Bull Racing) dan Valtteri Bottas (Mercedes).
+Hamilton pun semakin kokoh di puncak klasemen sementara pebalap F1. Ia unggul 28 poin atas rival terdekatnya, Sebastian Vettel (Scuderia Ferrari). Saat balapan baru dimulai, terjadi drama yang melibatkan Kimi Raikkonen, Max Verstappen (Red Bull Racing, dan Vettel.
+Insiden diawali dari usaha Raikkonen yang hendak menyalip Verstappen dari arah kiri. Namun, mobil mereka saling berbenturan hingga menyebabkan kerusakan, dan mengenai pula mobil Vettel.
+Akibat kejadian tersebut, Raikkonen dan Verstappen tidak dapat melanjutkan balapan karena mobilnya rusak berat. Beberapa saat kemudian, Vettel juga terpaksa menghentikan balapan.
+Bagi Vettel, ini adalah kali pertama dia gagal finis setelah 19 seri balapan. Terakhir kali di tidak finis yakni pada balapan GP Malaysia 2016. Sementara itu, Lewis Hamilton yang start dari urutan kelima, mengambil keuntungan dengan langsung menyodok ke posisi terdepan, diikuti Daniel Ricciardo dan Nico Hulkenburg.
+Balapan GP Singapura kemudian dilanjutkan oleh penyelenggara saat memasuki putaran keempat. Memasuki putaran ke-9, Fenando Alonso (McLaren-Honda) juga tak dapat melanjutkan balapan karena mobilnya mengalami kerusakan akibat insiden tadi.
+Alhasil, tinggal tersisa 16 pebalap yang berjuang di lintasan.
+Pada putaran ke-11, insiden kembali terjadi. Kali ini dialami oleh pebalap Scuderia Toro Rosso asal Rusia, Daniil Kvyat.
+Kvyat menabrak pembatas lintasan di tikungan 7 setelah berupaya menyalip Kevin Magnussen (Haas).
+Tak lama kemudian, safety car masuk ke lintasan dan balapan baru dimulai kembali saat memasuki putaran ke-15. Sementara itu, Hamilton semakin melesat di posisi terdepan. Pada putaran ke-22, sang pemimpin klasemen unggul sekitar 4,9 detik dari Ricciardo yang berada di urutan kedua.
+Adapun posisi ketiga ditempati Bottas yang berselisih sekitar 11,4 detik dari Hamilton.
+Pada putaran ke-30, Hamilton masuk pit stop. Selepas itu, dia masih mempertahankan posisinya dan berjarak sekitar delapan detik dengan Ricciardo.
+Pebalap Sauber, Marcus Ericsson, jadi pebalap keenam yang tak dapat melanjutkan balapan. Pada putaran ke-38, mobilnya terpelintir di area Anderson Bridge dan membentur pembatas lintasan.
+Safety car pun kembali muncul seraya menunggu pengangkutan mobil Ericsson dari lintasan. Lima menit menjelang berakhirnya balapan, Magnussen juga dipastikan gagal finis. Mobil dia mengalami kerusakan di bagian MGU-K yang merupakan penghasil energi mesin.
+Hingga balapan berakhir, posisi podium tak mengalami perubahan. Hamilton sukses memenangi GP Singapura, diikuti Ricciardo dan Bottas.
+Dengan hasil ini, Hamilton semakin kokoh di puncak klasemen sementara pebalap dan kian berpeluang menjuarai F1 2017.
+Berikut adalah hasil lengkap balapan GP Singapura:
+1.Lewis Hamilton GBR Mercedes AMG Petronas Motorsport 58 laps
+2.Daniel Ricciardo AUS Red Bull Racing-TAG Heuer +4.507
+3.Valtteri Bottas FIN Mercedes AMG Petronas Motorsport +8.800s
+4.Carlos Sainz SPA Scuderia Toro Rosso-Renault +22.822s
+5.Sergio Perez MEX Sahara Force India-Mercedes +25.359s
+6.Jolyon Palmer GBR Renault Sport F1 +27.259s
+7.Stoffel Vandoorne BEL McLaren-Honda +30.388s
+8.Lance Stroll CAN Williams Martini Racing-Mercedes +41.696s
+9.Romain Grosjean FRA Haas-Ferrari +43.282s
+10.Esteban Ocon FRA Sahara Force India-Mercedes +44.795s
+11.Felipe Massa BRA Williams Martini Racing-Mercedes +46.536s
+12.Pascal Wehrlein GER Sauber-Ferrari +2 laps
+Gagal finis
+Kevin Magnussen DEN Haas-Ferrari
+Nico Hulkenberg GER Renault Sport F1
+Marcus Ericsson SWE Sauber-Ferrari
+Daniil Kvyat RUS Scuderia Toro Rosso-Renault
+Fernando Alonso ESP McLaren-Honda
+Sebastian Vettel GER Scuderia Ferrari
+Max Verstappen NED Red Bull Racing-TAG Heuer
+Kimi Raikkonen FIN Scuderia Ferrari</t>
+  </si>
+  <si>
+    <t>Tim tenis meja beregu Indonesia sukses menyapu bersih semua pertandingan beregu dengan kemenangan pada hari pertama ASEAN Para Games IX/2017 ketika berlangsung di Malaysian International Trade and Exhibition Center (MITEC), Kuala Lumpur, Minggu (17/9/2017).
+Kemenangan tim Merah-Putih diawali oleh tim beregu putra kelas 8 ketika menundukkan Filipina dan Thailand dengan skor masing-masing 3-0. Tim beregu putra kelas 10 pun tak mau kalah, diperkuat petenis meja difabel nomor tiga dunia David Jacobs, sukses menumbangkan perlawanan Singapura dan Thailand dengan skor yang sama juga masing-masing 3-0.
+Berselang tak berapa lama giliran tim beregu putra kelas 1-3 yang menundukkan Singapura dengan skor 3-0. Kemudian tim beregu putra kelas 6-7 menaklukkan Vietnam 3-0 dan tim putri kelas 1-5 menuntaskan perlawanan tim tuan rumah Malaysia dengan skor 3-0. Terakhir, tim putri kelas 9-10 Indonesia mengalahkan Thailand dengan skor 3-1.
+Kepala pelatih tim tenis meja Indonesia Rima Ferdianto mengatakan jika hasil di hari pertama sesuai dengan apa yang diperkirakan sebelumnya. Dirinya juga menuturkan secara umum penampilan semua atlet pada hari ini sesuai harapan. Namun tak semuanya mulus, ada sedikit kendala, tetapi para pemain bisa mengatasinya
+Kendala itu dicontohkan Rima seperti apa yang dialami oleh David Jacobs ketika menghadapi tunggal putra andalan Thailand Bunpot Sillapakong, namun David bisa mengendalikan situasi di set kedua sampai terakhir dan akhirnya memenangkan laga. "David tidak mau bermain bola silang dan lebih memilih pukulan lurus," kata Rima.
+Indonesia masih terus melanjutkan perjuangan demi meraih target juara umum cabang olahraga tenis meja ASEAN Para Games ke-9 dengan melakoni pertandingan hari kedua, Senin (18/9/2017) yang menyajikan laga beregu putra kelas 9, kelas 5, kelas 6-7, kelas 1-3, kelas 4, tim beregu putri 6-8 dan tim beregu putri 9-10.
+Adapun pertandingan beregu tenis meja sendiri digelar dengan format setengah kompetisi atau round robin.  
+Sebagai informasi, kelas 1-5 merupakan atlet difabel yang tidak bisa berdiri dan harus bergerak dengan kursi roda. Kelas 6-10 adalah atlet difabel tuna daksa tetapi masih bisa berdiri dan kelas 11 yaitu atlet tuna grahita</t>
+  </si>
+  <si>
+    <t>Sekretaris Jenderal DPP Partai Demokrat Hinca Panjaitan mengatakan, Demokrat akan mengusung kader terbaiknya sebagai calon gubernur pada Pilkada Kalimantan Barat.
+Hal tersebut diungkapkan Hinca saat pelantikan Ketua DPD Partai Demokrat Kalimantan Barat, Suryadman Gidot di Singkawang, Minggu (17/9/2017).
+Meski pendaftaran pasangan calon gubernur, calon bupati, atau calon wali kota pada Pilkada Serentak 2018 baru akan dibuka pada 8 Januari mendatang, hingga saat ini Partai Demokrat sedang bekerja keras selama empat bulan ke depan untuk menuntaskan 171 daerah yang akan mengikuti pilkada serentak, termasuk di Kalbar.
+"Demokrat itu partai yang dibuat untuk kadernya. Karena itu kami akan terus mendorong kader kami untuk berusaha semaksimal mungkin mengikuti kontestasi yang ada," ucap Hinca.
+Nama Suryadman Gidot sendiri dalam setahun belakangan muncul sebagai calon kuat kader yang diusung Partai Demokrat sebagai cagub dalam Pilkada Kalbar 2018.
+"Pak Gidot dan kawan-kawan harus bekerja keras melakukan penjaringan. Yang baru kami berikan dukungan kemarin adalah Kubu Raya dan masih ada yang lain, itu tugas Gidot," kata Hinca.
+"Selesai dilantik sebagai ketua DPD Partai Demokrat Kalimantan Barat, dia harus maraton kerja siang dan malam meneruskan kerja politik," ujar dia.
+(Baca juga: Suryadman Gidot Resmi Pimpin DPD Demokrat Kalimantan Barat)
+Partai Demokrat, sebut Hinca, juga membuka kesempatan kepada partai lain untuk untuk bergabung dalam koalisi.
+"Kami tetap membuka pada putra-putri terbaik Kalimantan Barat. Misalnya pagi ini, spanduknya dari rekan yang lain, juga boleh. Itu adalah bagian kebersamaan kami, kita bangun demokrasi dan sistem politik yang baik di Kalbar," kata Hinca.
+"Kami buka kesempatannya, tapi sekali lagi, Demokrat adalah partai kader. Kami mempunyai kader yang didorong sampai pada waktunya terpilih, kecuali sama sekali tidak ada, dan elektabilitasnya rendah, tentu kami realistis ingin mendukung yang menang," ujarnya.
+Gidot merupakan kader Demokrat yang saat ini menjabat sebagai Bupati Kabupaten Bengkayang selama dua periode.
+Pelantikan Gidot sebagai Ketua DPD Partai Demokrat Kalbar disaksikan ribuan masyarakat Kalbar yang hadir dari berbagai kabupaten yang dipusatkan di Stadion Kridasana, Singkawang.</t>
+  </si>
+  <si>
+    <t>Tim Jawa Barat mendominasi hari  kedua cabang olahraga renang Pekan Olahraga Pelajar Nasional (POPNAS) XIV / 2017 yang berlangsung di Kolam Renang Jatidiri Semarang Minggu, 17 September 2017.
+Jabar meraih 4 medali emas, sisanya dua emas direbut Riau. Dengan demikian, di klasemen umum, Jabar memimpin dengan raihan 5 emas, 3 perak, 4 perunggu. Tim DKI Jakarta di peringkat dua dengan koleksi 3 - 6 - 4, posisi ketiga Riau 3 - 0 - 0, lalu keempat Bali 1-4-2, posisi kelima Jawa Timur  1-0-5 , peringkat enam Jawa Tengah 1-0-1 dan peringkat timun Banten 0-1-0.
+Emas Jawa Barat disumbang Athalarik Maulidio di nomor 1500 meter gaya bebas putra dengan catatan 16 menit 32,31 detik. Perak diraih Joe Aditya (DKI) 16 menit 40,26 dan perunggu Rashief Amila Yaqin (Jabar) 16 menit 44,94 detik.
+Perenang Jabar lainnya, Azel Zelmi mempersembahkan emas di nomor  50 meter gaya kupu-kupu putra dengan waktu 25,93 detik. Perak disumbang Muhammad Fauzan (Bali) 26,04 detik dan perunggu Danandra Indra (DKI) 26,55 detik.
+Pada nomor 200 meter gaya ganti perorangan putra, emas diraih Erick Ahmad Fathoni (Jabar) dengan catatan 2 menit 08,63 detik. Medali perak diraih Dwiki Anugrah (DKI) 2 menit 10,77 detik dan perunggu I Putu Wirawan (Bali) 2 menit 13,44 detik.
+Emas keempat Jabar dipersembahkan Farel Armandio Tangkas di nomor 200 meter gaya punggung putra dengan waktu 2 menit 07,81 detik. Medali perak Daniel Setyawan (DKI) 2 menit 09,86 detik dan perunggu Dwiki Anugrah (DKI) 2 menit 11,23 detik.
+Perenang nasional Azzahra Permatahani (Riau) menyabet dua emas di hari Minggu. Emas pertama di nomor 200 meter gaya ganti perorangan putri dengan catatan 2 menit 22,50 detik. Perak Felicia Angelica (DKI) 2 menit 24,27 detik dan perunggu Sofia Kemala (DKI) 2 menit 29,10 detik.
+Emas kedua Azzahra dari nomor 200 meter gaya punggung putri dengan waktu tercepat 2 menit 24,66 detik. Perak Dewi Novita Lestari (Bali) 02 menit 27,57 detik dan perunggu Sofie Kemala (DKI) 02 menit 27,59 detik.
+Di nomor 50 meter gaya kupu-kupu putri perenang nasional Adinda Larasati Dewi (Jatim) meraih emas dengan catatan 28,46 detik. Perak diperoleh Angel Gabriel Yus (DKI) 29,07 detik dan perunggu Vina Wijaya (Jateng) 29,18 detik.
+Di nomor 800 meter gaya bebas putri emas diraih Hanna Christina (Jateng) 9 menit 30,27 detik. Perak diperoleh Ni Nyoman Dewi (Bali) 9 menit 38,79 detik dan perunggu Prada Hanan Farmadini (Jabar) 9 menit 43,21 detik.
+Hari ketiga akan mempertandingkan nomor 100 meter gaya bebas, 200 meter gaya kupu-kupu, 400 meter gaya ganti perorangan dan estafet 4x100 gaya bebas.</t>
+  </si>
+  <si>
+    <t>Menteri Koordinator Kemaritiman, Luhut Binsar Panjaitan, bersama Gubernur Maluku, Said Assagaff, dan puluhan pebalap sepeda internasional dari sejumlah negara menyusuri sejumlah jalan di Kota Ambon, Minggu (17/9/2017) dengan bersepeda.
+Kegiatan Clycling For All atau bersepada bersama itu menjadi rangkaian pembuka acara Tour de Molvccas (TdM) yang akan berlangsung di Maluku 18-22 September 2017. Sejumlah orang dan komunitas sepeda di Ambon juga ambil bagian dalam kegiatan itu.
+Kegiatan yang dilepas Meneteri Luhut di kediaman Gubernur Maluku di kawasan Mangga Dua Ambon itu juga diikuti sejumlah pejabat seperti Pangdam XVI Pattimura Mayjen Doni Monardo, Kapolda Maluku Irjen Deden Djuhara, dan Wali Kota Ambon Richard Louhenapessy dan sejumlah pejabat lainnya.
+Rombongan tersebut menyusuri sejumlah jalan utama di Ambon mulai dari Jalan Dr Latumeten, Talake, Waringin, Jalan Sultan Babullah, Jalan Ay Patty, menuju Mardika, Belakang Soya, Jalan Sultan Hairun, dan finis di Lapangan Merdeka Ambon.
+Usai acara tersebut, pihak panitia lomba membuat dorprize dan memberikan sejumlah hadiah menarik kepada para peserta.
+Sebelumnya, saat melepas acara tersebut, Luhut Panjaitan mengatakan, pengembangan sektor pariwisata menjadi salah satu prioritas pemerintah saat ini. Dia menyatakan sangat mendukung dan mengapresiasi acara Tour de Molvccas yang digelar saat ini.
+“Pemerinta mendukung penuh kegiatan TdM di Maluku sebagai upaya untuk mendongkrak kunjungan wisatawan ke Indonesia,” kata dia.
+Dia mengatakan kegiatan TdM harus menjadi kegiatan tahunan untuk mempromosikan  pariwisata di Maluku. Dia juga berharap agar ke depan kegiatan itu dapat diikuti lebih banyak lagi peserta dari luar negeri.
+Acara TdM 2017 diikuti 70 pebalap yang tergabung dalam 14 tim dari 20 negara, termasuk Indonesia. Puluhan pebalap itu akan melewati lima etape balapan dengan jarak mencapai 714 kilometer.
+Gubernur Maluku, Said Assagaff berharap kegiatan tersebut akan memacu geliat pariwisata di Maluku.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Menteri Sosial Khofifah Indar Parawansa mengaku bahwa sudah ada lima partai politik yang siap mengusungnya jika dia memastikan diri maju dalam Pemilihan Kepala Daerah Jawa Timur 2018.
+Namun, Khofifah masih belum mau mengungkap apa saja parpol yang akan mengusungnya. Ini disebabkan Khofifah belum memastikan apakah dia akan maju dalam pemilihan nanti.
+"Saya hanya menyampaikan jumlahnya saja. Untuk lainnya, sabar, ditunggu saja," ujar Khofifah, selepas menghadiri acara penyerahan bantuan kepada mantan napi terorisme di Lamongan, Minggu (17/9/2017).
+Khofifah kemudian menjelaskan alasannya belum menentukan pilihan untuk maju sebagai calon gubernur dalam Pilkada Jatim. Saat ini, dia sedang menyesuaikan juga terkait jadwal Pilkada Jatim.
+"Saya kan juga mendeteksi penjadwalan KPUD (Komisi Pemilihan Umum Daerah). Jadi, insya Allah kami menghitung jadwal yang ada di KPUD," tutur Khofifah.
+"Saya menyampaikan kepada teman-teman, sabar dulu. Pada saatnya kalau memang sudah, kami akan mengambil keputusan apakah maju atau tidak, insya Allah saya akan kabari," kata dia.
+(Baca juga: Khofifah: Kalau Waktunya Sudah Tepat, Saya Akan Menghadap Pak Presiden)
+Khofifah juga mengatakan, dia tidak ingin buru-buru mendeklarasikan diri sebagai salah satu kandidat calon pada Pilkada Jatim 2018. Sebab, menurut dia, proses pendaftaran masih lama.
+Apalagi, saat ini dia masih menjabat menteri sosial. Dengan demikian, jika ingin maju sebagai cagub, maka dia hendaknya melaporkan keputusannya terlebih dahulu kepada Presiden Joko Widodo.
+"Pendaftaran saja kan Januari. Insya Allah sudah cukup (dukungan parpol). Kalau saya mau maju, ya baru lapor Presiden. Sekarang, saya tetap pada prioritas maksimalisasi program Kementerian Sosial," kata dia.
+Saat dikonfirmasi mengenai kejadian dirinya sempat bertemu dengan Presiden Joko Widodo beberapa waktu lalu, Khofifah menyatakan bahwa pertemuan tersebut terkait pembahasan kinerjanya sebagai menteri dan tidak terkait dengan Pilkada Jatim 2018.
+"Kalau ketemu dengan Presiden kemarin, itu karena program Kementerian Sosial. Jadi bagaimana tahu disetujui atau tidak, wong saya aja belum bilang. Pada saatnya, semua akan saya umumkan," kata Khofifah.</t>
+  </si>
+  <si>
+    <t>Puluhan massa tidak dikenal menggelar aksi unjuk rasa di depan kantor Yayasan Lembaga Bantuan Hukum Indonesia ( YLBHI), Menteng, Jakarta Pusat, Minggu (17/9/2017).
+Awalnya puluhan massa itu mendatangi kantor YLBHI sekitar pukul 21.30 WIB tanpa membawa spanduk atau pun atribut aksi.
+Mereka berorasi, meminta pihak YLBHI menghentikan acara diskusi. Mereka menganggap diskusi tersebut membicarakan soal kebangkitan Partai Komunis Indonesia (PKI).
+"Ganyang PKI! Ganyang PKI," teriak massa yang berdemonstrasi.
+(Baca juga: LBH Jakarta Sebut Pembubaran Seminar Sejarah 1965 Wujud Darurat Demokrasi)
+Sementara itu, Ketua Bidang Advokasi YLBHI Muhammad Isnur menuturkan bahwa pihaknya memang menyelenggarakan acara diskusi sejak sore tadi.
+Namun, diskusi membahas soal darurat demokrasi. Diskusi tersebut, kata Isnur, juga mengundang seniman, budayawan dan akademisi.
+"Hari ini ada penampilan seni dari seniman dan budayawan. Mengangkat isu darurat demokrasi," kata Isnur.
+"Seringkali kami dituduh fasilitasi acara PKI, itu sama sekali enggak benar," ujar dia.
+Hingga pukul 22.00 WIB, massa aksi masih mengepung kantor YLBHI.
+Sementara, puluhan aparat kepolisian dari Polsek Menteng sudah berjaga di lokas. Mereka membawa tongkat, perisai dan helm pengaman.</t>
+  </si>
+  <si>
+    <t>Wakil Ketua Komisi Pemberantasan Korupsi (KPK) Laode M Syarif mengatakan, KPK telah melayangkan lagi surat panggilan pemeriksaan terhadap Ketua DPR RI Setya Novanto. Ini merupakan surat panggilan kedua KPK kepada Novanto untuk diperiksa sebagai tersangka pada Senin (18/9/2017) besok, terkait kasus e-KTP.
+"Sudah dilayangkan surat yang kedua. Kami sudah layangkan dan besok diharapkan Novanto hadir," kata Syarif di gedung KPK, Kuningan, Jakarta, Minggu (17/8/2017).
+Senin (11/9/2017) lalu, Novanto berhalangan hadir dengan alasan sakit pada panggilan pertama sebagai tersangka pada kasus dugaan korupsi e-KTP.  Syarif berharap, Novanto besok bisa kooperatif untuk datang ke pemeriksaan KPK. Novanto telah ditetapkan sebagai tersangka kasus dugaan korupsi proyek e-KTP. KPK menduga Novanto ikut mengatur agar anggaran proyek e-KTP senilai Rp 5,9 triliun disetujui anggota DPR.
+Selain itu, Novanto diduga telah mengondisikan pemenang lelang dalam proyek E-KTP sewaktu menjabat Ketua Fraksi Golkar di DPR. Bersama pengusaha Andi Agustinus alias Andi Narogong, Novanto diduga ikut menyebabkan kerugian negara sebesar Rp 2,3 triliun.</t>
+  </si>
+  <si>
+    <t>Ketua Umum Partai Demokrat Susilo Bambang Yudhoyono menyapa ribuan warga, serta kader dan simpatisan Demokrat di Kalimantan Barat melalui sambungan telepon, Minggu (17/9/2017).
+SBY menelepon melalui sambungan internasional dari Singapura kepada warga, serta kader dan simpatisan Partai Demokrat seusai pelantikan Ketua DPD Partai Demokrat Kalbar.
+Acara itu sendiri dimeriahkan dengan kegiatan Jalan Sehat yang diikuti ribuan masyarakat dari berbagai penjuru Kalbar yang dipusatkan di Stadion Kridasana Singkawang. Bahkan, menurut laporan panitia, tiket jalan sehat yang berjumlah 40.000 itu ludes.
+Kegiatan jalan sehat dengan berbagai hadiah tersebut merupakan rangkaian peringatan ulang tahun ke-16 Partai Demokrat yang dilakukan bersamaan dengan pelantikan.
+"Saya senang sekali, saya bersyukur dan bangga, punya semangat dari kader Demokrat dan saudara-saudaranya rakyat Indonesia yang ada di Kalimantan Barat," ujar SBY, seperti yang terdengar dari telepon genggam yang dipegang Sekjen Partai Demokrat Hinca Panjaitan yang terhubung dengan pengeras suara.
+"Semoga semangat ini bisa mengubah Kalimantan Barat, mengubah Indonesia, menjadi provinsi yang lebih maju yang lebih sejahtera, yang lebih tampil dan membawa manfaat bagi seluruh nya," ucap SBY.
+(Baca juga: Hinca Panjaitan: Masih Ingat Program Pak SBY?)
+Sebagai salah satu komponen bangsa Indonesia, sambung SBY, Partai Demokrat mempunyai cita-cita luhur untuk membangun negeri serta meningkatkan kesejahteraan.
+"Demokrat juga ingin sukses dalam pilkada dan pemilu mendatang," ucap SBY yang disambut tepuk tangan masyarakat yang hadir.
+"Saya senang mendengar semangat dan teriakannya," kata Presiden keenam RI itu.
+SBY menambahkan, ada beberapa syarat jika Partai Demokrat ingin meraih kesuksesan pemilu dan pilkda. salah satunya adalah lebih fokus dengan kebutuhan rakyat.
+"Sukses itu tidak datang dari langit. Sukses itu harus kita ikhtiarkan, kita upayakan, agar dapat kita capai. Banyak teori, banyak cara agar Partai Demokrat sukses, tetapi menurut saya paling penting, Demokrat harus lebih fokus dengan rakyat, Demokrat harus lebih sering mendengar harapan rakyat, aspirasi rakyat. Itu yang membedakan dengan yang lain," ucap SBY.
+Partai Demokrat, menurut SBY juga harus memberikan solusi dan ikut memikirkan kesusahan rakyat, seperti misalnya kesusahan lapangan pekerjaan yang harus bisa diatasi oleh partai.
+"Kalau daya beli rakyat sedang susah untuk memenuhi kebutuhan sehari-hari, Demokrat ikut mengatasinya. Kalau keadilan belum merata, Demokrat ikut memperjuangkannya. Kalau penegakan hukum juga masih ada tebang pilihnya, kita berjuang agar penegakan hukum adil," kata SBY.
+Terkait dengan penanganan korupsi, SBY menegaskan bahwa Partai Demokrat justru memberikan dukungan kepada KPK. Menurut SBY, jangan sampai ada yang ingin membubarkan, apalagi membekukan KPK.
+"Kalau Demokrat bersama rakyat, mendengar kan suara rakyat, memperjuangkan harapan rakyat, maka dengan izin Tuhan Yang Maha Kuasa, Demokrat akan meraih kemenangan di masa mendatang. Itu resepnya, itu caranya, itu jalan yang harus ditempuh," kata SBY.</t>
+  </si>
+  <si>
+    <t>Ketua Umum Partai Demokrat Susilo Bambang Yudhoyono menyapa ribuan warga, serta kader dan simpatisan Demokrat di Kalimantan Barat melalui sambungan telepon, Minggu (17/9/2017).
+SBY menelepon melalui sambungan internasional dari Singapura kepada warga, serta kader dan simpatisan Partai Demokrat seusai pelantikan Ketua DPD Partai Demokrat Kalbar.
+Acara itu sendiri dimeriahkan dengan kegiatan Jalan Sehat yang diikuti ribuan masyarakat dari berbagai penjuru Kalbar yang dipusatkan di Stadion Kridasana Singkawang. Bahkan, menurut laporan panitia, tiket jalan sehat yang berjumlah 40.000 itu ludes.
+Kegiatan jalan sehat dengan berbagai hadiah tersebut merupakan rangkaian peringatan ulang tahun ke-16 Partai Demokrat yang dilakukan bersamaan dengan pelantikan.
+"Saya senang sekali, saya bersyukur dan bangga, punya semangat dari kader Demokrat dan saudara-saudaranya rakyat Indonesia yang ada di Kalimantan Barat," ujar SBY, seperti yang terdengar dari telepon genggam yang dipegang Sekjen Partai Demokrat Hinca Panjaitan yang terhubung dengan pengeras suara.
+"Semoga semangat ini bisa mengubah Kalimantan Barat, mengubah Indonesia, menjadi provinsi yang lebih maju yang lebih sejahtera, yang lebih tampil dan membawa manfaat bagi seluruh nya," ucap SBY.
+(Baca juga: Hinca Panjaitan: Masih Ingat Program Pak SBY?)
+Sebagai salah satu komponen bangsa Indonesia, sambung SBY, Partai Demokrat mempunyai cita-cita luhur untuk membangun negeri serta meningkatkan kesejahteraan.
+"Demokrat juga ingin sukses dalam pilkada dan pemilu mendatang," ucap SBY yang disambut tepuk tangan masyarakat yang hadir.
+"Saya senang mendengar semangat dan teriakannya," kata Presiden keenam RI itu.
+SBY menambahkan, ada beberapa syarat jika Partai Demokrat ingin meraih kesuksesan pemilu dan pilkda. salah satunya adalah lebih fokus dengan kebutuhan rakyat.
+"Sukses itu tidak datang dari langit. Sukses itu harus kita ikhtiarkan, kita upayakan, agar dapat kita capai. Banyak teori, banyak cara agar Partai Demokrat sukses, tetapi menurut saya paling penting, Demokrat harus lebih fokus dengan rakyat, Demokrat harus lebih sering mendengar harapan rakyat, aspirasi rakyat. Itu yang membedakan dengan yang lain," ucap SBY.
+Partai Demokrat, menurut SBY juga harus memberikan solusi dan ikut memikirkan kesusahan rakyat, seperti misalnya kesusahan lapangan pekerjaan yang harus bisa diatasi oleh partai.
+"Kalau daya beli rakyat sedang susah untuk memenuhi kebutuhan sehari-hari, Demokrat ikut mengatasinya. Kalau keadilan belum merata, Demokrat ikut memperjuangkannya. Kalau penegakan hukum juga masih ada tebang pilihnya, kita berjuang agar penegakan hukum adil," kata SBY.
+Terkait dengan penanganan korupsi, SBY menegaskan bahwa Partai Demokrat justru memberikan dukungan kepada KPK. Menurut SBY, jangan sampai ada yang ingin membubarkan, apalagi membekukan KPK.
+"Kalau Demokrat bersama rakyat, mendengar kan suara rakyat, memperjuangkan harapan rakyat, maka dengan izin Tuhan Yang Maha Kuasa, Demokrat akan meraih kemenangan di masa mendatang. Itu resepnya, itu caranya, itu jalan yang harus ditempuh," kata SBY. Tujuan dari kegiatan IOX 2017 Celebes ini untuk menyingkap tabir pesona Sulawesi di wilayah yang tidak lagi dilalui kendaraan bermotor sejak lama.
+Para peserta nantinya akan melewati jalur-jalur tua sepanjang 40 kilometer yang sudah tidak terpakai lagi dan memiliki kondisi super ekstrem.
+Sepanjang perjalanan, peserta bisa menemui sekitar 21 pohon tumbang yang harus dibersihkan.
+Selain itu, dapat dijumpai pula empat rawa dan beberapa sungai dengan arus yang cukup deras.   
+Perjalanan ekspedisi ini akan menempuh jarak sekitar 1.500 kilometer dalam waktu 15 hari.
+Demi kelancaran acara dan memastikan kesiapan peserta, panitia sampai harus mengadakan coaching clinic di Jakarta.
+Pemeriksaan kendaraan juga dilakukan untuk memastikan spesifikasi yang sesuai dengan persyaratan.
+Pengiriman kendaraan akan dilakukan melalui laut dari Jakarta ke Kendari pada 20 September. 
+Kendaraan diharapkan tiba di Kendari pada awal Oktober dan start pada 7 Oktober.</t>
+  </si>
+  <si>
+    <t>Kantor Yayasan Lembaga Hukum Indonesia ( YLBHI) tampak mencekam, Minggu (17/9/2017) malam.
+Pantauan Kompas.com, gerbang kantor YLBHI dikunci rapat dan dijaga oleh puluhan aparat kepolisian. Kantor YLBHI nampak gelap. Lampu-lampu dimatikan.
+Hanya beberapa orang saja yang duduk-duduk di tangga menuju pintu masuk yamg tertutup rapat.
+Sejak pukul 21.30 WIB, puluhan massa yang mengklaim dari kelompok anti-komunis menggelar aksi unjuk rasa di depan kantor Yayasan Lembaga Bantuan Hukum Indonesia (YLBHI), Menteng, Jakarta Pusat, Minggu (17/9/2017).  Mereka pun memadati dua gerbang YLBHI yang berada di sebelah timur dan selatan.
+Salah seorang juru bicara dari massa yang berdemonstrasi meminta perwakilan masuk ke dalan kantor YLBHI.
+Awalnya puluhan massa itu mendatangi kantor YLBHI sekitar pukul 21.30 WIB tanpa membawa spanduk atau pun atribut aksi. Mereka berorasi, meminta pihak YLBHI menghentikan acara diskusi.
+Mereka menganggap diskusi tersebut membicarakan soal kebangkitan Partai Komunis Indonesia (PKI).
+"Ganyang PKI! Ganyang PKI," teriak massa aksi. Sementara itu, Ketua Bidang Advokasi YLBHI Muhammad Isnur menuturkan bahwa pihaknya memang menyelenggarakan acara diskusi sejak sore tadi.
+Namun, diskusi membahas soal darurat demokrasi dan tidak terkait PKI. Diskusi tersebut, kata Isnur, juga mengundang seniman, budayawan dan akdemisi.
+"Hari ini ada penampilan seni dari seniman dan budayawan. Mengangkat isu darurat demokrasi," kata Isnur.
+"Seringkali kami dituduh fasilitasi acara PKI, itu sama sekali enggak benar," ujar dia.
+Hingga pukul 22.00 WIB, demonstran masih mengepung kantor YLBHI.
+Sementara, puluhan aparat kepolisian dari sudah berjaga di sekeliling kantor YLBHI. Mereka membawa tongkat, perisai dan helm pengaman.
+Ada juga personel membawa pelontar gas air mata. Akibat aksi tersebut, lalu lintas di ruas Jalan Diponegoro macet total.</t>
+  </si>
+  <si>
+    <t>Massa mendatangi kantor Lembaga Bantuan Hukum (LBH) Jakarta di Jalan Pangeran Diponegoro, Menteng, Jakarta Pusat, Minggu (17/9/2017) malam. Mereka memprotes kegiatan yang sedang diselenggarakan di kantor LBH karena dituding berbau komunis.
+Dari pantauan Kompas.com, Minggu malam, suasana di pintu masuk LBH memanas.
+Aparat keamanan mengamankan aksi tersebut, dan menahan massa yang berupaya masuk. Belum jelas dari mana masa tersebut berasal.
+Menurut informasi, di LBH dilangsungkan acara seminar "Pelurusan Sejarah 65". Acara itulah yang diprotes massa itu.
+Pihak kepolisian tampak menjembatani dialog antara perwakilan massa dengan pihak di LBH. Seorang polisi berpangka Komisaris Besar tampak meyakinkan massa bahwa kegiatan di LBH bukan kegiatan terlarang. "Kalau ada kegiatan terlarang pasti kami sudah hentikan dari kemarin," kata polisi tersebut.
+Polisi mempersilahkan perwakilan warga untuk masuk melihat kegiatan di dalam LBH. Belum jelas berapa orang yang diutus. Hingga kini massa masih menuntut untuk masuk ke LBH.
+"Gua anak tentara, PKI keluar lo," teriak seorang dari kelompok orang itu.</t>
+  </si>
+  <si>
+    <t>Kementerian Sosial memberikan bantuan kepada sejumlah keluarga mantan narapidana kasus terorisme dan eks kombatan yang tergabung dalam Yayasan Lingkar Perdamaian, Minggu (17/9/2017).
+Sebelumnya, beberapa di antara mereka mengaku sempat merasa kesulitan dalam mengurus administrasi.
+Ini lantaran bantuan Program Keluarga Harapan (PKH) yang diberikan oleh Kementerian Sosial, salah satunya mensyaratkan mereka memiliki Kartu Tanda Penduduk (KTP) terbaru maupun kartu identitas lain yang dibutuhkan.
+"Kalau mereka sudah terima buku tabungan, berarti proses itu sudah selesai. Tinggal di dalam proses aktivasi, itu nantinya ada NIK (Nomor Induk Keanggotaan)," ujar Menteri Sosial (Mensos) Khofifah Indar Parawansa saat menghadiri acara penyerahan bantuan di Pendopo Kabupaten Lamongan, Minggu (17/9/2017).
+"Dan proses ini memang harus dikoordinasikan dengan pihak kabupaten, terutama kecamatan dan desa setempat. Jadi mudah-mudahan semua terintegrasi, sehingga mereka bisa segera menerima bantuan ini," kata dia.
+Pada kesempatan tersebut, total ada sekitar 24 keluarga eks napi dan mantan kombatan yang mendapat bantuan.  Dengan rincian, 17 keluarga penerima berasal dari Kabupaten Lamongan, dua penerima dari Kabupaten Tuban, dua dari Kabupaten Bojonegoro, serta masing-masing satu dari Kabupaten Malang dan Kabupaten Madiun.
+Bantuan PKH yang diberikan masing-masing sebesar Rp 1.890.000 per tahun, akan dicairkan dalam empat tahap. Selain itu, ada pula bantuan berupa Kartu Indonesia Sehat (KIS) untuk 88 jiwa, usaha ekonomi produktif (UEP) untuk delapan keluarga sebesar Rp 40 juta, dua kelompok usaha bersama (KUBE) di sektor pertanian juga senilai Rp 40 juta.
+Sementara ketika dikonfirmasi mengenai bantuan rumah kepada eks napi terorisme dan kombatan, Khofifah menyatakan tidak menutup semua kemungkinan.
+Namun, dengan catatan,semua dilakukan sesuai dengan koridor yang ada dan tidak menyalahi aturan.
+"Itu tergantung lahannya dulu. Jadi pemerintah itu tidak diperkenankan oleh anggaran untuk pengadaan lahan di wilayah pemkab. Seandainya lahan ada, itu biasanya kerja sama formatnya dengan Dinas PU (Pekerjaan Umum), kalau bencana alam itu dengan BNPB, kalau social baru dengan Kementerian Sosial," tutur dia.</t>
+  </si>
+  <si>
+    <t>Lebih dari 100 orang peserta diskusi dan pagelaran seni #DaruratDemokrasi tertahan di dalam kantor Yayasan Lembaga Bantuan Hukum Indonesia ( YLBHI), Menteng, Jakarta Pusat, Minggu (17/9/2017) jelang tengah malam.
+Berdasarkan pantauan Kompas.com, peserta diskusi terdiri dari mahasiswa, aktivis, akademisi dan beberapa orang lanjut usia.
+Mereka tertahan dan tidak bisa pulang, lantaran puluhan massa yang mengklaim dari kelompok anti-komunis menggelar aksi unjuk rasa di depan kantor YLBHI sejak pukul 21.30 WIB.
+"Masih ada sekitar 100 orang di dalam gedung. Tadi sore mereka yang datang ke YLBHI untuk menonton pagelaran seni dan diskusi," ujar Direktur YLBHI Asfinawati saat dihubungi.
+Tanpa membawa spanduk atau atribut, peserta demonstrasi berorasi meminta pihak YLBHI menghentikan acara diskusi. Selain itu mereka juga memaksa masuk ke dalam gedung YLBHI. Mereka menganggap diskusi tersebut membicarakan soal kebangkitan Partai Komunis Indonesia (PKI).
+"Ganyang PKI! Ganyang PKI," teriak peserta demonstrasi.
+Sementara itu, Ketua Bidang Advokasi YLBHI Muhammad Isnur menuturkan bahwa pihaknya memang menyelenggarakan acara diskusi dan pagelaran seni sejak sore tadi.
+Namun, diskusi dan pagelaran seni itu membahas soal darurat demokrasi. Dia pun membantah bahwa diskusi dan pagelaran seni itu mengangkat soal PKI.
+Diskusi tersebut, kata Isnur, juga mengundang seniman, budayawan dan akdemisi.
+"Hari ini ada penampilan seni dari seniman dan budayawan. Mengangkat isu darurat demokrasi," kata Isnur.
+"Seringkali kami dituduh fasilitasi acara PKI, itu sama sekali enggak benar," ujarnya.
+Hingga pukul 23.00 WIB, massa masih mengepung kantor YLBHI. Sementara, puluhan aparat kepolisian dari sudah berjaga di sekeliling kantor YLBHI. Mereka membawa tongkat, perisai dan helm pengaman.
+Ada juga personel membawa pelontar gas air mata. Akibat aksi tersebut, lalu lintas di ruas Jalan Diponegoro macet total.</t>
+  </si>
+  <si>
+    <t>Kapolda Metro Jaya Irjen Pol Idham Aziz mendatangi kantor Yayasan Lembaga Bantuan Hukum Indonesia, di Menteng, Jakarta Pusat, Minggu (17/9/2017) malam.
+Dalam kesempatan itu, Idham berkomunikasi dengan massa dan meminta massa yang berujuk rasa di depan YLBHI untuk menjaga ketertiban.
+"Saya meminta teman-teman semua tenang," kata Idham.
+Ia menyakinkan massa bahwa kegiatan di dalam YLBHI tidak berkaitan dengan kegiatan komunis. Seperti diketahui, massa menuduh di dalam YLBHI berlangsung seminar tentang PKI.
+"Saya minta teman-teman semua bisa memahami bahwa yang terjadi di dalam ruang LBH ini tidak ada kegiatan yang sifatnya seminar tentang PKI," ujar Idham. "Bohong," teriak massa.
+"Rekan-rekan sekalian mohon dengar dulu saya belum selesai. Sejak kemarin saya sendiri yang memimpin di sini untuk tidak dilaksanakan seminar," ujar Idham.
+"Saya sendiri yang memimpin untuk tidak berlangsung sejak kemarin. Hari ini mereka berkumpul bukan seperti yang kalian sangka," ucapnya, berusaha menenangkan massa. Kapolda menyatakan, jika caranya seperti ini, tidak mungkin bisa menyelesaikan masalah. Ia meminta massa tidak anarkistis.
+Masalah ini, menurut dia, bisa diselesaikan dengan komunikasi yang santun.
+"Marilah kita diskusi selesaikan masalah dengan santun, baik, transparan, Insya Allah bisa selesai dengan baik, saya mohon bisa memahami ini," ujarnya.
+Kapolda meminta utusan massa untuk ke depan menemui dirinya untuk melakukan dialog dengan pihak LBH.</t>
+  </si>
+  <si>
+    <t>Kapolda Metro Jaya Irjen Pol Idham Aziz berusaha meyakinkan massa yang berunjuk rasa di depan kantor Yayasan Lembaga Bantuan Hukum Indonesia bahwa tidak ada seminar terkait Partai Komunis Indonesia (PKI) di YLBHI.
+Hal itu disampaikan Idham saat berdialog dengan massa di depan kantor YLBHI, di Menteng, Jakarta Pusat, Minggu (17/9/2017) malam. Kapolda meminta massa untuk tenang.
+"Saya minta teman-teman semua bisa memahami bahwa yang terjadi di dalam ruang LBH ini tidak ada kegiatan yang sifatnya seminar tentang PKI," kata Idham.
+Kapolda meminta massa memberikan kepercayaan kepadanya. Sebab, Idham menyatakan bahwa sejak kemarin dirinya sudah melarang kegiatan seminar tentang sejarah yang terjadi pada 1965/1966.
+"Saya sendiri yang memimpin untuk tidak berlangsung sejak kemarin. Hari ini mereka berkumpul bukan seperti yang kalian sangka," ujar dia.
+Adapun, didalam kantor YLBHI, ratusan peserta diskusi dan pagelaran seni #DaruratDemokrasi tertahan di dalam kantor Yayasan Lembaga Bantuan Hukum Indonesia (YLBHI), Menteng, Jakarta Pusat, Minggu (17/9/2017).  Ini disebabkan puluhan massa mendatangi YLBHI dan menuding ada kegiatan acara PKI di sana. Mereka juga memaksa masuk ke dalam gedung YLBHI.
+Mereka menganggap diskusi tersebut membicarakan soal kebangkitan Partai Komunis Indonesia (PKI).
+"Ganyang PKI! Ganyang PKI," teriak peserta demonstrasi.
+Sementara itu, Ketua Bidang Advokasi YLBHI Muhammad Isnur menuturkan bahwa pihaknya memang menyelenggarakan acara diskusi dan pagelaran seni sejak sore tadi. Namun, diskusi dan pagelaran seni itu membahas soal darurat demokrasi.Dia pun membantah bahwa diskusi dan pagelaran seni itu mengangkat soal PKI. Diskusi tersebut, kata Isnur, juga mengundang seniman, budayawan dan akademisi.
+"Hari ini ada penampilan seni dari seniman dan budayawan. Mengangkat isu darurat demokrasi," kata Isnur.
+"Seringkali kami dituduh fasilitasi acara PKI, itu sama sekali enggak benar," ujarnya</t>
+  </si>
+  <si>
+    <t>Tiga perampok dan pembunh suami istri di Tanah Abang, Jakarta Pusat, Husni Zarkasih (58) dan Zakiyah Masrur (53) dicokok. AZ, EK, dan SU ditangkap di Grobogan, Jawa Tengah.
+"Dia ditangkap di sebuah hotel di Grobogan, sedang foya-foya, karaoke," kata Kabid Humas Polda Metro Jaya Kombes Raden Prabowo Argo Yuwono saat dikonfirmasi, Rabu 13 September 2017.  Kapolsek Metro Tanah Abang AKBP Lukman Cahyono mengatakan, salah satu pelaku merupakan sopir yang pernah bekerja dengan korban. Pelaku diduga sudah tahu situasi rumah hingga bisa membawa lari brankas, emas, dan mobil milik korban.
+"Iya (sopir) nanti dirilis Polda," jelas Lukman.
+Jasad Husni dan Zakiyah ditemukan di Sungai Klawing, Plumbungan, Bobotsari, Purbalingga, Jawa Tengah, Senin 11 September 2017. Dari tanda pengenal yang ditemukan, kedua jasad merupakan warga Jalan Pengairan, Bendungan Hilir, Tanah Abang, Jakarta Pusat.</t>
+  </si>
+  <si>
+    <t>Penggunaan fasilitas umum oleh warga Jakarta sangat minim. Masyarakat lebih memilih menggunakan kendaraan pribadi daripada memanfaatkan moda pelat kuning.
+"Sekarang ini baru 15% warga Jakarta yang pakai kendaraan umum. Mayoritas yang menggunakan umum itu ya dari luar Jakarta," kata Wakil Kepala Dinas Perhubungan DKI Jakarta Sigit Wijatmoko kepada Metrotvnews.com, Rabu 13 September 2017. Pajak progresif, menurutnya belum bisa mendorong penggunaan fasilitas umum ini. Contoh yang sering menganggap remeh jenis pajak itu yakni penghuni apartemen. Seperti diketahui, setiap pembangunan rumah susun disertai dengan Izin Mendirikan Bangunan (IMB).  Salah satu persyaratan yakni ketersediaan lahan parkir bagi penghuninya. Jika mereka taat, maka mobil bisa ditampung di garasi yang disediakan pihak apartemen. Namun yang terjadi tidak demikian.
+"Banyak pemilik apartemen memiliki mobil lebih dari satu. Akhirnya badan jalan jadi korban," kata Sigit.
+Untuk itu, kebijakan mobil yang harus punya garasi ini disebut sebagai lompatan besar. Implementasi dari Pasal 140 Perda Nomor 5 Tahun 2014 ini memperhatikan tentang tata ruang Ibu Kota.
+Dishub DKI Jakarta bersama Kakorlantas Polda Metro Jaya, tengah menggodok petunjuk teknis (juknis) aturan yang akan dibakukan melalui Peraturan Gubernur itu.
+Mekanismenya, warga yang ingin mengajukan Surat Tanda Nomor Kendaraan (STNK) mobil, harus mengantongi pengantar dari RW. Pengantar itu berisi kesanggupan warga terkait menyediakan garasi. Lalu Kelurahan akan mengurus surat izin dan selanjutnya ditangani oleh Kepolisian.
+Ditargetkan pada 2019 nanti, presentase pengguna kendaraan umum melebihi saat ini. "Untuk mengejar presentase ini, perlu lompatan besar berupa aturan mobil wajib punya garasi. Nanti targetnya di 2019 ada 40% warga Jakarta yang menggunakan kendaraan umum," kata Sigit.
+Sebelumnya, Gubernur DKI Jakarta, Djarot Saiful Hidayat meminta pengendara yang hendak membeli mobil melampirkan surat keterangan memiliki garasi. "Begitu ada surat keterangan punya garasi, baru boleh punya mobil," kata Djarot di Kemenko Maritim, Jakarta Pusat, Rabu 6 September 2017.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapolri Jenderal Polisi Tito Karnavian melantik sejumlah pejabat utama Mabes Polri, hari ini, Selasa 19 September 2017. Pelantikan berdasarkan surat keputusan Kapolri Nomor KEP/961/IX/2017. 
+Sejumlah perwira tinggi yang dilantik yakni Irjen Unggung Cahyono yang sebelumnya menjabat sebagai Asisten Logistik Kapolri dilantik menjadi Kepala Lembaga Pendidikan dan Pelatihan Polri. Brigjen Pol Asep Suhendar yang sebelumnya menjabat sebagai Staf Ahli Bidang Manajemen Kapolri, dilantik menjadi Aslog Kapolri.   Selanjutnya, Kapolri melantik Kapolda Bangka Belitung yang sebelumnya dijabat Brigjen Pol Anton Wahono Sudarminto menjadi Brigjen Pol Syaiful Zachri. Sedangkan Anton kini menjadi Staf Ahli Bidang Manajemen Kapolri. 
+Tito mengaku, pergantian di tubuh perwira tinggi Polri untuk menyesuaikan dinamika yang terjadi. 
+"Dinamika yang terjadi perlu dilakukan upaya percepatan, terutama bidang tertentu seperti logistik karena beban kerja cukup berat. dan juga Lemdikpol sendiri," kata Tito di Rupatama Mabes Polri, Kebayoran Baru, Jakarta Selatan, Selasa 19 September 2017.
+Tito menyebut, kehadiran Unggung saat menjabat sebagai Asisten Logistik sangat membantu dirinya. Terutama, dalam mengurus  sejumlah kegiatan besar, seperti unjuk rasa 212, hingga operasi Tinombala dan arus mudik. 
+"Semua berhasil bisa diselesaikan. Saya anggap beliau role model yang patut ditiru. Saya pikir Kalemdiklat jabatan strategis karena menangani pendidikan kepolisian," beber dia. 
+Tito menambahkan, Kalemdiklat diperlukan oleh lembaga lain di luar Polri, misalnya KPK. Komisi antirasuah diketahui bekerja sama dengan Kalemdiklat dalam hal pendidikan. 
+Sementara itu, Komjen Pol Moechgiharto juga dilantik menjadi Kepala Badan Pemelihara Keamanan menggantikan Komjen Pol Putut Eko Bayuseno. Namun, sertijab akan dilakukan pada November 2017. 
+Ini bertepatan masa pensiun Inspektur Pengawasan Umum Polri (Irwasum) Komjen Pol Dwi Priyatno yang purna tugas. Kelak Putut disiapkan menggantikan Dwi sebagai Irwasum. 
+"Saya minta kebesaran hati pak Moechgiarto sertijab sampai November. Sementara bapak bisa dulu di Baharkam," ucap dia. </t>
+  </si>
+  <si>
+    <t>Kenaikan tunjangan anggota DPRD DKI terancam molor. Pasalnya, pembahasan Rancangan Peraturan Daerah (Raperda) tentang Hak Keuangan dan Administrasi Pimpinan dan Anggota DPRD DKI belum selesai. 
+Raperda itu turunan dari Peraturan Pemerintah Nomor 18 Tahun 2017 tentang Hak Keuangan dan Administratif Pimpinan dan Anggota DPRD yang diundangkan pada 2 Juni 2017. Sesuai aturan, Raperda semestinya selesai dibahas maksimal 2 September 2017 atau tiga bulan setelah diundangkan.  "Jadi, rupanya ada juga yang kesulitan, hati-hati. Sebenarnya PP 18 itu ada batas waktunya, 2 September loh, ini sudah molor. Makanya ini juga akan pengaruh pada gaji tunjangan DPRD," kata Gubernur DKI Jakarta Djarot Saiful Hidayat di Lapangan Monas, Jakarta Pusat, Selasa 19 September 2017.
+Untuk mewujudkan kenaikan tunjangan dewan yang diperkirakan sampai tujuh kali lipat itu tak hanya berhenti di Perda. Djarot mengatakan, setelah Perda rampung, butuh Peraturan Gubernur (Pergub) yang mengatur rincian tunjangan.
+"Karena nominalya ada di Pergub, di Perda cuma aturannya," papar Djarot. Djarot belum dapat memastikan waktu pasti rampungnya Pergub. "Ya tergantung Perdanya dong, Perdanya belum. Baru kalau Perda sudah ada baru Pergub," tandas Djarot.
+Sementara itu, mantan Wali Kota Blitar itu menutup kemungkinan tunjangan kenaikan dewan masuk dalam APBD Perubahan 2017. Sebab, Kebijakan Umum Anggaran dan Prioritas Plafon Anggaran Sementara (KUAPPAS) untuk APBD Perubahan 2017 sudah dikunci.
+"Kenapa? Karena kita sudah sepakat disiplin untuk pakai sistem e-budgeting, enggak boleh seperti itu," pungkas Djarot.</t>
+  </si>
+  <si>
+    <t>Polres Mimika, Papua, mengungkap penangkapan pemilik 10 ribu butir pil somadril. Menurut tersangka berinisial Z, ia mendapat pil tersebut dari Makassar, Sulawesi Selatan.
+Kapolres Mimika AKBP Viktor Mackbon mengatakan pil tersebut dilarang beredar dan digunakan. Pil dapat menimbulkan efek halusinasi pada penggunanya.  "Penangkapan dilakukan sepekan lalu," kata Viktor, Selasa 19 September 2017.
+Viktor mengatakan polisi menemukan 1.000 strip pil somadril di sebuah kantor perusahaan jasa pengiriman barang di Jalan Cenderawasih, Timika. Satu strip berisi 10 pil.
+Dari pengembangan, polisi menemukan Z sebagai pemilik barang. Perempuan asal Lamongan itu kemudian ditangkap di rumahnya di KM 10 Timika. Kawasan itu dikenal sebagai area lokalisasi.
+"Di rumah Z, polisi menemukan 27 papan obat somadril atau 270 butir," lanjut Viktor.
+Z mengaku sudah tiga kali menerima barang. "Pengiriman pil dari Makassar dilakukan sejak Juni lalu sebanyak 1.000 butir," ungkap Kapolres.
+Tersangka mengaku menjual pil itu di sekitar tempat tinggalnya. Pelanggannya adalah pramuria. Ia juga mengirim pil itu ke Yahukimo dan Asmat.
+"Obat-obatan ilegal itu dibeli seharga Rp70 juta per seribu butir," tutur Kapolres.</t>
+  </si>
+  <si>
+    <t>16 pengedar obat Paracetamol Cafeine Carisoprodol (PCC) ditahan Kepolisian Daerah Sulawesi Tenggara. Ke-16 tersangka yang diduga mengedarkan produk terlarang itu dianggap paling bertanggungjawab terhadap peredaran PCC yang sempat menggegerkan Kota Kendari beberapa hari terakhir.
+"Sebenarnya kami telah memeriksa sekitar 50 orang saksi hingga kemudian menetapkan 16 orang tersangka yang diduga keras pengedar produk PCC tanpa izin edar tersebut," kata Kepala Bidang Humas Polda Sultra, AKBP Sunarto di Kendari, Senin malam, 18 September. Ia menyebutkan, 16 tersangka yang telah ditahan di Mapolda Sultra tersebut masing-masing berinisial RS, FA, ST, MR, WYK, AM, PS, HS, ES alias EL, AC, FR alias FN, AR, HP, AR alias OCE, JP alias LI dan SS alias BT.
+Disebutkan, dari 16 tersangka itu, pihak kepolisian menyita 5.428 butir produk penenang dengan rincian 1.647 butir Tramadol, 3.043 butir PCC dan 738 butir Promed.
+"Kami tidak hanya menyita ribuan butir dan menahan pelakunya, tetapi juga turut menyita barang bukti lainnya berupa uang tunai senilai Rp7,666 juta dan HP Samsung," katanya.
+Terkait perbuatannya kata Sunarto, ke 16 pelaku disangka telah melanggar Pasal 197 Juncto Pasal 106 ayat 1 UU No 36 tahun 2009 tentang kesehatan, dengan ancaman hukuman penjara selama 15 tahun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aturan penggolongan obat-obatan saat ini dinilai terlalu rumit untuk dipahami masyarakat. Pengamat Konsumen Kesehatan Marius Widjajarta meminta agar pemerintah bisa menyederhanakan aturan penggolongan obat-obatan di Indonesia.
+Dia mengatakan, pemerintah saat ini masih mengadopsi St Nomor 419 Tahun 1949 tentang penggolongan obat. Aturan itu menyebut penggolongan obat terbagi dalam lima golongan; obat bebas, obat bebas terbatas, obat daftar G, obat narkotika, dan obat psikotropika. "Seharusnya sudah enggak model begini. Di luar negeri sudah tidak begini," ungkap Marius, dalam Opsi 2 Sisi, Senin 18 September 2017.
+Dengan ketentuan seperti ini, Marius menilai pemerintah khususnya Kementerian Kesehatan perlu merevisi peraturan tersebut. Pemerintah perlu menyederhanakan penggolongan obat menjadi dua macam saja; obat dengan resep dokter dan obat tanpa resep dokter.
+"Jadi masyarakat tahu. Kalau pakai yang sekarang masyarakat susah mengadposinya," kata Marius.
+Penyederhanaan aturan itu, kata Marius, akan membatasi masyarakat dalam mengakses obat-obatan. Sebab, obat dengan resep dokter tentu hanya dapat diperoleh dari apotek sementara obat tanpa resep dokter bisa didapatkan secara bebas maupun melalui apotek.
+Yang terjadi selama ini, kata Marius. pemerintah kurang memberi swamedikasi kepada masyarakat untuk mengenal obat-obatan. Ditambah lagi dengan regulasi yang kurang memadai.
+Padahal, kata Dia, BPOM sudah bekerja maksimal dan diperkuat dengan Inpres Nomor 3 Tahun 2017 tentang Peningkatan Efektivitas Pengawasaan Obat dan Makanan yang melibatkan beberapa kementerian dan lembaga.
+"Tapi sampai sekarang tidak ada (hasilnya). Jadi nanti diharapkan ada koordinasi antara BPOM, kepolisian, Kemenkes, Kemendag dan lain-lain agar ketika ada kasus tidak saling melempar dan sebaiknya Inpres ini jangan hanya tertulis tapi bagaimana agar diwujudkan. Menurut Saya ini penting," jelasnya.
+</t>
+  </si>
+  <si>
+    <t>Badan Nasional Penanggulangan Bencana memastikan tak ada aktivitas hujan abu vulkanik menyusul meningkatnya aktivitas Gunung Agung Senin 18 September. Berdasarkan laporan dari Pusat Vulkanologi dan Mitigasi Bencana Geologi (PVMBG), Gunung Agung belum meletus dan tidak mengeluarkan hujan abu.
+"Kemarin terjadi gempa 2,8 SR kedalaman 10 km dengan pusat gempa di sekitar Gunung Agung. Masyarakat merasakan guncangan gempa dengan intensitas ringan," kata Humas Badan Nasional Penanggulangan Bencana Sutopo Purwo Nugroho, Selasa 19 September 2017. Hasil analisis satelit Aqua dan Terra dari Lapan menunjukkan adanya 3 hotspot kebakaran hutan dan lahan di sekitar Kubu Kabupaten Karangasem (sebelah utara-timurlaut) kawah Gunung Agung dalam 24 jam terakhir. Laporan petugas di lapangan, masih berlangsung kebakaran hutan dan lahan hingga pagi ini di sekitar Gunung Agung. Kemungkinan abu dari material lahan yang terbakar ini terbawa oleh angin dan jatuh ke permukaan.
+"Dengan demikian dapat disimpulkan bahwa adanya informasi hujan abu dan foto-foto yang beredar di sosmed adalah tidak benar hujan abu dari aktivitas vulkanik Gunung Agung. Kemungkinan itu adalah material abu dari kebakaran hutan dan lahan yang terjadi di sekitar Gunung Agung," Ujar Sutopo.
+Gunung Agung mengalami peningkatan aktivitas vulkanik. PVMBG Badan Geologi menaikkan status aktivitas Gunung Agung dari Level II (Waspada) ke Level III (Siaga) terhitung Senin ini, pukul 21.00 WITA. 
+Sekitar 44 jiwa mengungsi mandiri terkait meningkatnya status Gunung Agung. 44 jiwa pengungsi berasal dari Dusun Lebih, Desa Sebudi, Kecamatan Selat, Kabupaten Karangasem. Mereka mengungsi di 3 lokasi di wilayah Kabupaten Klungkung. BPBD Kabupaten Klungkung telah memberikan bantuan bagi pengungsi.
+"Masyarakat diimbau untuk tenang. Jangan terpancing isu-isu menyesatkan. Saat ini banyak beredar hoax dan informasi yang menyesatkan sehingga menimbulkan keresahan. Sebarkan fakta dan informasi yang benar," ujarnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kepala daerah terlibat korupsi semakin sering terkuak. Komisi Pemberantasan Korupsi (KPK) berturut-turut mencokok kepala daerah dalam operasi tangkap tangan (OTT).
+Menteri Dalam Negeri Tjahjo Kumolo memandang kepala daerah selalu merasa kekurangan meski sebenarnya tercukupi secara materiil. "Kalau (kepala daerah) melihatnya yang ada, ya tidak akan pernah puas," tegas Tjahjo dalam Metro Pagi Primetime Metro TV, Selasa 19 September 2017. Menurut data Kementerian Dalam Negeri, ada 77 kepala daerah terjaring OTT. Sedangkan 300 lebih kepala daerah bermasalah. Jumlah tersebut belum termasuk ratusan lainnya dari tingkat DPRD dan pejabat daerah lainnya.
+Tjahjo menyebut sudah ada sistem yang memandu mereka supaya lurus dan transparan. Aparatur Pengawas Internal Pemerintah (APIP) juga sudah diremajakan untuk mencegah korupsi di daerah.
+Namun, kembali terulangnya penyimpangan, kata Tjahjo, dikembalikan kepada masing-masing individu. "Apa sistem salah? Tidak. Semua pengawasan dan pencegahan sudah kita lakukan," ucap dia.
+Bekas Sekjen PDI Perjuangan itu tak melulu menyalahkan kepala daerah. Ia tak mau memukul rata semua pejabat koruptif.
+Tjahjo mengingatkan untuk selalu memahami area rawan korupsi. Ia juga meminta kepala daerah berpikir ulang sebelum curang. Sebab, setiap gerak-gerik pemimpin daerah selalu dipantau masyarakat. Pantauan masyarakat bakal lebih tajam dari lembaga penegakan hukum.
+Sebelumnya, Deputi Pencegahan KPK Pahala Nainggolan mengkritisi arah pemerintahan kepala daerah. Misal, dalam komitmen terkait arahan Mendagri. Pada September 2016, Tjahjo mengamanatkan seluruh daerah menerapkan e-Planning dan e-Budgeting.
+Kedua kebijakan itu berkaca pada kesuksesan Tri Rismaharini mengelola Surabaya. Pahala menyebut keduanya menjadi barang wajib, namun hanya sebagian kepala daerah yang memberlakukan.
+"Majunya di daerah ya begitu, baru 42%. Karena mungkin beberapa membaca, wah ini susah nih kalau terjadi beneran, nitip-nitip akan susah,  karena semua lewat mekanisme  dan elektronik dan plus ada dokumentasinya," jelas Pahala.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pemerintah menargetkan 300 jembatan gantung pada 2018 di seluruh Indonesia. Menteri Pekerjaan Umum dan perumahan Rakyat (PUPR), Basuki Hadimuljono mengatakan, dengan adanya jembatan gantung itu maka tidak perlu lagi ada aksi "Indiana Jones". 
+"Tidak perlu lagi ada aksi 'Indiana Jones', hasil kebun dan pertanian juga bisa dipasarkan dengan lebih efisien dan mudah lewat jembatan ini," ujar Basuki, usai peresmian jembatan gantung Mangunsuko dan Krinjing di Magelang, Jawa Tengah, Senin 18 September 2017. Kemarin, Presdien Joko Widodo meresmikan dua jembatan gantung di Magelang. Jembatan Mangunsuko menghubungkan Desa Sumber dengan Desa Mangunsuko, serta Jembatan Krinjing menghubungkan Dusun Krinjing dengan Dusun Paten, dan Dusun Jombong dengan Dusun Gandelan.
+Kepala Desa Sumber, Maryono mengatakan, jembatan gantung Mangunsuko sangat penting untuk meningkatkan aksesibilitas warga di dua desa. Ia menuturkan, banyak warga desa yang memiliki lahan pertanian di Desa Sumber dan Desa Mangunsuko.
+"Jembatan ini menyambungkan lima dusun di desa Mangunsuko dan 12 dusun di desa Sumber sehingga akan mempermudah warga dalam aktivitas sehari-hari," beber dia. 
+Maryono mengaku, sebelum jembatan dibangun warga desa terpaksa berjalan kaki atau naik sepeda motor memutari desa ke arah selatan sejauh 8 kilometer. "Tadinya ada jembatan gantung yang menghubungkan dua desa namun terkena erupsi Merapi dan lenyap," ucap dia. 
+Tak hanya itu, dengan adanya jembatan gantung Mangunsuko, anak-anak yang akan sekolah tidak perlu berjalan jauh setiap hari. Mereka cukup melintas jembatan, termasuk warga yang akan mengurus administrasi ke kantor kelurahan.
+"Di Desa Sumber ada padepokan kesenian gamelan yang setiap hari selalu ramai oleh aktivitas kesenian anak-anak. Jembatan ini sangat bermanfaat untuk menunjang akivitas anak-anak," kata dia. 
+Selain itu, jembatan juga berguna untuk meningkatkan kegiatan ekonomi warga seperti akivitas perdagangan, jual beli, termasuk untuk menggarap perasawahan. Bahkan warga juga tidak perlu lagi repot untuk menghadiri acara keagamaan seperti ke gereja atau ke masjid. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kementerian Kesehatan (Kemenkes) memerintahkan Dinas Kesehatan (Dinkes) DKI Jakarta untuk memberikan sanksi teguran tertulis pada Rumah Sakit Mitra Keluarga Kalideres terkait kasus meninggalnya bayi Tiara Debora Simanjorang. Kepala Dinkes DKI Koesmedi Priharto, menyebut surat sudah disampaikan. 
+"Kan sudah tapi surat dari Kemenkes disuruh menegur seperti itu saja sampai menunggu audit medik," ujar Koesmedi di Balai Kota DKI Jakarta, Jalan Medan Merdeka Selatan, Jakarta Pusat, Rabu 13 September 2017. Dalam teguran itu, Dinkes DKI membuat perjanjian dengan RS Mitra Keluarga Kalideres. Koesmedi menuturkan, salah satunya, pihak rumah sakit berjanji menjalankan layanan kegawatdaruratan sesuai aturan.
+"Kemudian yang kedua, tidak akan menarik uang muka dan kalau sampai terjadi kasus seperti itu di tempat dia lagi dia bersetuju untuk izinnya dicabut," tegas Koesmedi.
+Sebelumnya, Kemenkes telah mengeluarkan hasil penelusuran terhadap penelusuran kematian bayi Debora. RS Mitra Keluarga Kalideres terbukti melakukan penyimpangan administrasi.
+"Memerintahkan Dinas Kesehatan DKI Jakarta memberikan sanksi administrasi sesuai dengan kewenangan, berupa teguran tertulis. Sedangkan sanksi lain akan ditentukan setelah dilaksanakan audit medik," tertulis dalam hasil penelusuran resmi dari Kemenkes.
+ </t>
+  </si>
+  <si>
+    <t>Badan Narkotika Nasional (BNN) Kendari, Sulawesi Tenggara, mendata 30 remaja mendapat perawatan intensif di rumah sakit. Mereka mengalami gangguan mental setelah mengonsumsi obat. Kejadian itu juga mengakibatkan satu korban meninggal.
+Kepala BNN Kendari, Muniarti, mengatakan kejadian itu luar biasa. Apalagi, puluhan orang mendatangi rumah sakit dan mengeluhkan gangguan mental yang sama hanya dalam waktu semalam. "Ini baru pertama kali terjadi di Kendari. Yang sangat memprihatinkan yang menjadi korban adalah anak usia sekolah," kata Muniarti di Kendari, Rabu 13 September 2017.
+Muniarti menduga masih banyak korban di luar rumah sakit. Hanya saja, ujarnya, gejala dan gangguannya tak langsung ketahuan.
+Murniati berkoordinasi dengan unsur terkait menangani masalah tersebut. Hasil pemeriksaan belum dapat mengidentifikasi jenis obat.</t>
+  </si>
+  <si>
+    <t>Presiden Joko Widodo mengingatkan ulama Jawa Tengah, pada 2018 dan 2019 mendatang akan menjadi tahun politik. Dia meminta para ulama untuk menjaga kerukunan masyarakat.
+"Karena (2018) di Jateng ada pemilihan gubernur. Kemudian pada September tahun depan itu sudah penetapan, saya juga baru sadar sudah penetapan capres dan cawapres," kata Jokowi dalam pertemuan dengan ulama Jateng di Istana Merdeka, Jakarta Pusat, Rabu 13 September 2017. Jokowi menyebut, situasi kondusif di daerah harus terus dipertahankan. Dia tak ingin momentum tahun politik digunakan pihak tertentu untuk mengadu domba warga. Jokowi ingin kesakralan perhelatan politik lima tahun sekali ini tetap dijaga.
+"Jangan sampai karena perhelatan politik antartentangga nantinya tidak rukun apalagi antarumat menjadi tidak kelihatan persaudaraannya kembali," jelas dia.
+Kepala Negara berharap persoalan ini menjadi perhatian pimpinan pondok pesantren, ulama, kiai, hingga pimpinan organisasi masyarakat. Dia ingin rasa persaudaraan terus ditumbuhkan.
+"Agar persaudaraan itu, ukhuwah islamiah kita ukhuwah watoniah kita betul-betul kita jaga bersama," pungkas dia.</t>
+  </si>
+  <si>
+    <t>Polda Nusa Tenggara Barat (NTB) berkoordinasi dengan Detasemen Khusus 88 Antiteror untuk memburu pelaku penembakan di Bima. Penembakan melukai dua polisi.
+Wakil Kapolda NTB Kombes Imam margono mengatakan masih memburu pelaku. Kejadian itu pun mengakibatkan polisi menetapkan status Siaga pada keamanan Bima. "Terkait persoalan ini, kami terus berkoordinasi dengan Densus. Kalau masalah pergerakannya, kami tidak tahu," kata Wakapolda di Mataram, Rabu 13 September 2017.
+Penyidik, ujar Wakapolda, mengetahui identitas salah satu pelaku. Yaitu atas nama Rahmat Hisbullah alias Ramhat alias Mamat alias Bili. Ramhat merupakan mantan narapidana kasus terorisme.
+Bili merupakan warga Kelurahan Penato'i, Kecamatan Mpunda, Kabupaten Bima Kota. Ia bebas dari tahanan sepekan lalu.
+ Sebelumnya, Bili mendekam di Lembaga Pemasyarakatan Pasir Putih Nusakambangan, Jawa Tengah, selama lima tahun delapan bulan. Identitas Bili terungkap lantaran salah satu korban mengenali wajah pelaku.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiga pembunuh dan perampok Husni Zarkasih (58) dan Zakiyah Masrur (53) tidak hanya ingin menguasai harta korban. Direktur Reserse Kriminal Umum Polda Metro Jaya Kombes Nico Afinta mengatakan, AZ, EK, dan SU, membunuh bekas majikannya itu karena sakit hati.
+"Motif mereka karena sakit hati diberhentikan kerja di pabrik garmen milik korban, namun tidak diberi pesangon. Tersangka AZ sopir sudah 20 tahun, tersangka SU kerja di pabrik sudah 30 tahun," kata Nico saat dikonfirmasi, Rabu 13 September 2017. Namun, Nico tak menjelaskan detail soal EK yang diketahui juga merupakan karyawan di pabrik garmen milik Husni.
+Ketiga pelaku tertangkap di kawasan Grobogan, Jawa Tengah, dini hari tadi. Kabi Humas Polda Metro Jaya Kombes Argo Yuwono mengatakan, ketiganya dicokok ketika sedang berpesta.
+"Dia ditangkap di sebuah hotel di Grobogan, sedang foya-foya, karaoke," kata Argo.
+AZ ditembak mati karena mencoba kabur. Ia berulah ketika polisi meminta pelaku menunjukkan penadah emas hasil rampasan ketiganya.
+Jasad Husni dan Zakiyah ditemukan di Sungai Klawing, Plumbungan, Bobotsari, Purbalingga, Jawa Tengah, Senin 11 September 2017. Dari tanda pengenal yang ditemukan, kedua jasad merupakan warga Jalan Pengairan, Bendungan Hilir, Tanah Abang, Jakarta Pusat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pansus Hak Angket KPK akan merampungkan kerjanya pada 28 September 2017 mendatang. Pansus berharap pemerintah menjalankan rekomendasi yang dihasilkan Pansus dengan sebaik-baiknya.
+"Karena Pansus ini konstitusi. Bagaimana kalau konstitusi enggak ditanggapi?," kata Anggota Pansus Hak Angket KPK Eddy Kusuma Wijaya di Kompleks Parlemen, Senayan, Jakarta, Rabu 13 September 2017. Eddy mengatakan, berkali-kali pihaknya menegaskan bahwa keberadaan angket ini bukan untuk melemahkan KPK. Tapi, keberadaan Pansus bertujuan mencari kelemahan yang ada di KPK untuk diperbaiki dan tidak diulangi lagi ke depan.
+"Tugas Pansus sampai di (penyerahan) rekomendasi. Kemudian diserahkan ke pemerintah. Setelah itu kita awasi lagi. Berjalan enggak?," ucap dia.
+Politikus PDIP itu mengungkapkan pihaknya memiliki mekanisme lain jika pemerintah tak kunjung melaksanakan rekomendasi Pansus tersebut. Di antaranya teguran dari Pansus hingga impeachment.
+"Kita tegur. Tugas DPR bukan hanya angket. Ada kelanjutannya. Hak menyatakan pendapat, dan lain-lain. (Impeachment) kalau melanggar UUD 1945," tandas dia.
+Menjelang Akhir
+Eddy membeberkan pihaknya masih terus mengundang sejumlah pihak untuk dimintai keterangan. Termasuk para ahli dan KPK.
+Pihaknya akan berusaha mendatangkan KPK ke forum Pansus. Pasalnya kehadiran KPK dalam rapat dengar pendapat (RDP) dengan Komisi III DPR belum bisa dikatakan cukup.
+"Jadi memang sebagian di RDP itu ada sih sebagian kecil (temuan) yang disampaikan. Tapi belum secara menyeluruh hasil temuan itu dibicarakan," ucap dia.
+Eddy berharap KPK tidak menggunakan alasan apapun untuk tidak memenuhi undangan Pansus. Sebab, Pansus ingin mengklarifikasi langsung terkait pengumpulan bahan dan keterangan yang selama ini dilakukan. 
+"Kewajiban konstitusi (KPK) untuk hadir," ujar dia.
+Jika KPK tetap bersikukuh mangkir, lanjut Eddy, Pansus memiliki mekanisme tersendiri untuk mendatangkan KPK ke Pansus. Itu diatur dalam Undang-undang MD3.
+Selanjutnya, Pansus akan melakukan analisa dan evaluasi terhadap temuan yang ada. Pansus akan membuat kesimpulan dan meminta tanggapan dari semua fraksi yang ada di DPR.
+"Kesimpulan terakhir akan diangkat di sidang paripurna. Agar ditanggapi oleh fraksi lain. Kalau semuanya sudah dianggap selesai, maka kita jadikan itu sebagai rekomendasi terhadap pemerintah," pungkas dia.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partai NasDem menyambut baik kerja sama dengan Komisi Pemberantasan Korupsi (KPK) membangun sistem kepartaian. Ketua Bidang Infokom DPP NasDem Willy Aditya memandang kerja sama penting untuk membangun sistem penegakan hukum dan demokrasi berkualitas.
+DPP Partai NasDem akan memulai kerja sama dengan menyerahkan daftar calon legislatif kepada lembaga antirasywah. "Diberikan verifikasi atau semacam jejak rekamnya oleh Partai Nasdem sehingga kita benar benar mendapatkan pemimpin yang berintegritas dan bersih," kata Willy dalam dialog bersama KPK dengan tema Sistem Integritas Partai Politik di DPP Partai NasDem, Jalan R.P Soeroso, Jakarta Pusat, Rabu 13 September 2017.
+Selain itu, NasDem juga menyerahkan beberapa instrumen sistem integritas yang telah dibangun partai. Beberapa di antaranya, sekolah legislatif, sekolah kader, format rekrutmen terbuka, dan pelaporan sistem keuangan partai.
+Beberapa petinggi Partai Nasdem seperti Sekjen Partai Johnny G. Plate, Ketua DPP Taufiq Basari, Ketua Bapilu Effendi Choiri, dan Anggota DPR Fraksi Partai Nasdem Taufiqulhadi. Dialoh juga dihadiri Deputi Pencegahan KPK Pahala Nainggolan dan Peneliti Politik Senior Lembaga Ilmu Pengetahuan Indonesia (LIPI) Syamsuddin Syamsuddin Haris.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anggota PDI Perjuangan Nurman E. Tanjung resmi menjadi anggota DPR menggantikan Indra Simatupang. Pelantikan pengganti antar waktu (PAW) ini dipimpin Wakil Ketua DPR Agus Hermanto.
+Agus berharap Nurman bisa memperkuat kinerja di bidangnya. "Selamat bagi yang telah dilantik, semoga dengan dilantiknya ini bisa memperkuat kinerja bidangnya," kata Agus saat sidang paripurna di gedung Nusantara II, Kompleks Parlemen, Jakarta Pusat, Rabu 13 September 2017. Indra mundur dari DPR. Ia diduga otak kasus penipuan investasi fiktif pada 2016 senilai Rp96 miliar. Ia memerintahkan stafnya Suyoko untuk memalsukan kop surat PTPN. Agar seolah-olah Indra membeli sawit dari PTPN.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jemaah korban biro perjalanan haji dan umrah bodong, First Travel sudah lelah dijanjikan bakal diberangkatkan. Korban hanya berharap, uang segera dikembalikan. 
+"Saya lebih berharap dikembalikan saja, kami sudah terlalu lama ditipu, sudah tidak percaya lagi dengan janji-janji akan diberangkatkan," ujar Syifa, salah seorang jemaah korban First Travel di kantor pengurus PKPU, Jalan Wijaya II, Jakarta Selatan, Rabu 13 September 2017. Senada dengan Syifa, seorang jamaah lain, Bahar, mengatakan ia sudah tidak percaya dengan janji-janji First Travel untuk memberangkatkan jemaah. Ia sangsi aset First Travel yang tersisa saat ini cukup untuk membiayai jemaah ke tanah suci.
+"Kembalikan saja dulu uang kami, kalau diberangkatkan uangnya dari mana? Daripada nanti kita disuruh tunggu lagi, terlalu lama. Saya sudah tidak percaya," tandas Bahar.
+Sebelumnya, Pengadilan Niaga, Pengadilan Negeri Jakarta Pusat mengabulkan gugatan perdata PKPU yang diajukan oleh sejumlah korban First Travel. Melalui putusan No. 105/PDT.SUS.PKPU/2017/PN.Niaga.JKT.PST, First Travel sebagai termohon PKPU wajib merestrukturisasi utangnya di Pengadilan Niaga Jakarta Pusat di bawah pengawasan hakim niaga, Titik Tejaningsih.
+Bagi jemaah yang ingin mengajukan diri sebagai kreditur bisa mendatangi kantor pengurus PKPU Firat Travel yang berlokasi di Perkantoran Grand Wijaya Center Blok F Nomor 10, Jalan Wijaya II, Kebayoran Baru, Jakarta Selatan, 12160.
+Bagi jemaah yang ingin mendaftarkan diri sebagai kreditur wajib menyerahkan sejumlah berkas, di antaranya Surat Pengajuan Tagihan, fotokopi kartu identitas kreditur ataupun kuasanya, fotokopi kwitansi ataupun bukti refund jika kwitansi yang asli sudah diserahkan kepada manajemen First Travel. Semua berkas itu dimasukan kedalam map berwarna hijau.
+Kantor pelayanan PKPU ini buka setiap hari Senin-Jumat dari pukul 10.00 - 16.00 WIB. Jemaah diberi waktu hingga Jumat, 15 September 2017. </t>
+  </si>
+  <si>
+    <t>Pemerintah Provinsi DKI Jakarta kembali menggalakkan aturan soal pemilik mobil wajib mempunyai garasi. Bila aturan itu terealisasi, kebutuhan lahan parkir di sejumlah wilayah di Ibu Kota makin banyak.
+Di balik kebutuhan lahan parkir atau garasi untuk mobil justru membuka celah pungutan liar (Pungli) semakin marak. Selama ini praktik pungutan terhadap kendaraan yang diparkir di trotoar dan jalan umum sudah jamak dilakukan pengurus RT/RW. Seperti yang terjadi di Jalan Z, Kelurahan Sukabumi Selatan RT 6 RW 4, Jakarta Barat.  "Kalau siang sih sedikit mobil yang parkir. Sore menjelang malam, penuh di jalan ini. Mereka katanya bayar ke RT," kata Rohim (nama samaran), pengusaha warteg di lokasi, Rabu 13 September 2017.
+Dikonfirmasi ke warga sekitar, mereka membenarkan adanya pungutan. Namun sifatnya suka rela, pemilik kendaraan yang rata-rata rumahnya berada di dalam gang, membayar ke pengelola daerah. Salah satu warga yang tak ingin disebut namanya mengaku iuran berlaku sejak lama.
+"Saya di sini sejak 2010, rumah di gang, mobil bak buat usaha diparkir di depan. Memang sudah lumrah. Di tempat lain juga begitu," katanya.
+Ia mengaku, tiap pemilik menyetor sedikitnya Rp300 ribu pada pengelola. Tapi nominal itu katanya bisa disesuaikan, tergantung kemampuan pemilik kendaraan. Khususnya bagi kendaraan bak untuk usaha.
+Ketika dicoba konfirmasi ke pengurus RT/RW sekitar, warga enggan memberi tahu lokasi hunian. Pengakuan mereka, para pengurus rata-rata bekerja dan saat ini tidak sedang di rumah.
+Padatnya kendaraan dan minimnya lahan parkir juga ditemui di Tanah Abang, Jakarta Pusat. Bagja, 30, warga Kebon Kacang, Jakarta Pusat misalnya, ia tak punya pilihan selain memarkir kendaraan di bahu jalan setiap hari. Letak rumah yang mesti melewati gang sempit itu menjadi alasan utama tidak memiliki garasi.
+Jaminan penjagaan oleh oknum juga menjadi salah satu alasan pemilik, untuk memarkirkan mobilnya di bahu jalan. "Lebar mobil saya enggak bisa dibawa masuk ke gang mas. Kalau aturan ditegakan saya bingung mau pindah ke mana. Parkir di bahu jalan masih aman karena ada yang jaga," kata Bagja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pemerintah Provinsi DKI Jakarta akan menerapkan Peraturan Daerah (Perda) Nomor 5 Tahun 2014 tentang Transportasi. Pasal 140 mewajibkan warga pemilik kendaraan roda empat wajib memiliki garasi.
+Warga yang ingin perpanjangan, mutasi dan Surat Tanda Nomor Kendaraan (STNK) wajib melampirkan surat keterangan kepemilikan garasi. Surat itu dikeluarkan kelurahan. “Dia (pemilik kendaraan) harus mendapatkan rekomendasi dari RT, RW dan lurah,” kata Kepala Dinas Perhubungan DKI Andri Yansyah di Gedung DPRD DKI, Jalan Kebon Sirih, Jakarta Pusat, Rabu 13 September 2017.
+Penderekan di area permukiman sudah dilakukan dengan pendekatan sosial dan psikologis, berbeda dengan penderekan di jalan raya. Di kawasan permukiman tidak asal angkut, tapi ditanya dulu siapa pemiliknya.
+Andri mengungkapkan, di permukiman kawasan Tebet, Jakarta Selatan, ada mobil yang diparkir bertahun-tanpa tanpa ada yang tahu siapa pemiliknya. Warga kemudian meminta Dishub menderek mobil tersebut karena mengganggu aktivitas warga. Wakil Kepala Dishub Sigit Widjatmoko mengatakan, Dishub belum melakukan penertiban mobil dalam rangka penegakan Perda Nomor 5/2014. Gencarnya penderekan lebih kepada penertiban bulan tertib trotoar.
+Sebanyak 17.531 kendaraan ditindaklanjut Dishub. Rinciannya, sebanyak 968 kendaraan diderek, 1.634 ditilang Dishub dan 1.742 kendaraan ditilang polisi. Operasi copot pentil dilakukan pada roda dua sebanyak 8.359 kendaraan, roda empat 3.647 kendaraan dan 1.181 kendaraan diangkut. </t>
+  </si>
+  <si>
+    <t>Partai Demokrat menolak pelemahan Komisi Pemberantasan Korupsi (KPK). Ketua Umum Partai Demokrat Susilo Bambang Yudhoyono (SBY) menegaskan partainya siap membantu KPK memberantas korupsi.
+"Apalagi kalau ada yang ingin membekukan dan membubarkan KPK," tegas SBY di kantor DPP Demokrat Wisma Proklamasi 41, Jakarta Pusat, Rabu 13 September 2017. Dukungan, tegas SBY, tetap diberikan meski banyak kader Demokrat yang terlibat kasus korupsi. Ia memastikan pihaknya konsisten.
+SBY juga mengajak semua pihak mendukung KPK. Terutama mereka yang berkecimpung di badan legislatif maupun eksekutif.
+"Harapan saya kepada Presiden Joko Widodo dan para pemimpin lembaga negara, ketua MPR, ketua DPR, ketua DPD, semua, dukung lah KPK," ucap dia.
+SBY juga berharap, KPK, Polri, Kejaksaan, dan Pengadilan berkolaborasi memberantas korupsi di Indonesia. Semua elemen tersebut memiliki misi yang sama dalam memberantas korupsi.
+"Rakyat sedih, kami sedih, kalau maaf, satu sama lain tidak klop. Klop lah, semua punya misi yang sama. Kalau berkompetisi secara sehat tapi jangan bermusuhan satu sama lain," ucap SBY.</t>
+  </si>
+  <si>
+    <t>Kejaksaan Agung segera membentuk dua direktorat pada Jaksa Agung Muda Tindak Pidana Umum (JAM Pidum). Dua direktorat itu masing-masing Direktorat Tindak
+Pidana Narkotika dan Zat Adiktif Lainnya dan Direktorat Tindak Pidana Terorisme dan Lintas Negara.
+"Hal itu seiring dengan adanya Keputusan Presiden yang memberi ruang dilakukannya penyempurnaan struktur organisasi Kejaksaan RI atas hasil pembahasan dan persetujuan Menteri Pendayagunaan Aparatur Negara dan Reformasi Birokrasi," kata Jaksa Agung HM Prasetyo dalam sambutan Pembukaan Rapat Kerja Teknis Bidang Tindak Pidana Umum dan Bidang Perdata dan Tata Usaha Negara (Datun) di Jakarta, Rabu 13 September 2017. Di bagian lain, ia meminta seluruh jaksa sungguh-sungguh dalam pelaksanaan tugas prapenuntutan. Yaitu, dalam penerbitan P19, atau berkas perkara untuk dilengkapi dan P21 atau berkas sudah lengkap.
+"Berdasar pengamatan saat ini masih ditemukan sikap tidak sungguh. Asal-asalan dan tidak profesional para Jaksa baik itu sengaja dilakukan atau tidak jarang tidak memperhatikan atau bahkan mengabaikan pemenuhan unsur yuridis serta ketentuan yang berlaku," terangnya. Rasanya sudah tak pantas untuk memberikan tempat bagi mereka yang tidak profesional. Karena akan menggerus kepercayaan masyarakat terhadap Kejaksaan. "Agar tidak ada lagi oknum Kejaksaan yang 'bermain-main' dengan penanganan perkara," imbuhnya.
+Terlebih perkara yang menjadi perhatian masyarakat seperti narkotika, terorisme dan perkara lain. Persoalan lain yang juga patut mendapat perhatian kita adalah berkenaan pelaksanaan putusan pengadilan yang telah 'inkracht'. Hal itu dapat menjadi sebuah permasalahan serius apabila tidak diselesaikan secara tuntas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direktur Rehabilitasi Sosial Tuna Sosial Kementerian Sosial Sony W Manalu mengatakan pemerintah serius dalam pemberantasan prostitusi di dalam negeri. Dari target 100 titik lokalisasi prostitusi yang hendak dihapuskan, pemerintah berhasil menutup 116 lokalisasi prostitusi yang tersebar di seluruh Indonesia.
+Bahkan pada 2015, Menteri Sosial Khofifah Indar Parawansa memerintahkan Ditjen Rehabilitasi Sosial membuat Rakornas dengan mengumpulkan seluruh pemda baik provinsi maupun kabupaten/kota yang wilayahnya terdapat lokalisasi prostitusi. "Di situ sudah ada komitmen bersama dan Menteri Sosial sudah mencanangkan Indonesia Bebas Lokalisasi Prostitusi 2019," ujar Sony, dalam Newsline, Rabu 13 September 2017.
+Sony mengatakan mungkin belum banyak masyarakat yang mengetahui bahwa Indonesia adalah negara yang paling banyak terdapat lokalisasi prostitusi. Berdasarkan data yang dihimpun Kementerian Sosial, ada 168 lokalisasi di Indonesia yang dihuni sekitar 30 ribu orang.
+"Per hari ini kita sudah berhasil mendukung penutupan 116 lokalisasi. Dalam waktu dekat kita akan menggarap wilayah Sampit dan Pangkalan Bun (Kalimantan) karena penutupan lokalisasi itu kewenangan pemerintah daerah," katanya.
+Sony menyebut tak sulit mengoordinasi pemerintah daerah untuk ikut dalam penutupan lokalisasi prostitusi. Pekerjaan rumah pemerintah selanjutnya adalah menyelesaikan 52 lokalisasi prostitusi yang belum dihentikan.
+Namun dia mengatakan ada sejumlah lokalisasi prostitusi yang berhenti beroperasi dengan sendirinya. Beberapa alasannya, pengelola menganggap para 'penjaja cinta' di lokalisasi sudah tak menarik.
+"Praktis tugas Kemensos saat ini kalau sisanya bisa ditutup, Kami pastikan 2019 bebas lokalisasi prostitusi. Satu lagi, kami berhasil memulangkan ke keluarganya, karena salah satu tempat yang paling nyaman buat--maaf-- PSK adalah keluarganya, mereka harus ditangani oleh hati, oleh keluarganya," jelas Sony. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gubernur Yogyakarta Sri Sultan Hamengkubuwono X menemui Presiden Joko Widodo. Sultan mendiskusikan suksesi gubernur Kota Gudeg.
+"Saya kan habis masa jabatan tanggal 10 (Oktober 2017), jadi (diskusi) itu saja," kata Sri Sultan di Kompleks Istana, Jakarta Pusat, Rabu 13 September 2017.  Sementara itu, DPRD Daerah Istimewa Yogyakarta melalui rapat paripurna istimewa kembali menetapkan Raja Keraton Ngayogyakarta Hadiningrat sebagai gubernur periode 2017-2022. Dia menyatakan proses surat verifikasi DPRD telah selesai.
+Sultan mempertanyakan keinginan warga yang meminta agar pelantikannya sebagai kepala daerah ditunda. Warga diketahui mempermasalahkan adanya perubahan penyebutan nama Buwono menjadi Bawono.
+"Apa hubungannya? Nama saya kan Hamengkubuwono X ya kan?" ujar dia.
+Ia menekankan, putusan Mahkamah Konstitusi (MK) yang mengabulkan gugatan soal syarat pencalonan gubernur dan wakil gubernur Daerah Istimewa Yogyakarta yang tercantum dalam Pasal 18 ayat (1) huruf m UU 13/2012 tentang Keistimewaan DIY tidak memengaruhi kondisi paugeran di keraton.
+"Itu kan kepentingan internal kemarin, eksternal tidak usah ikut campur," tegas dia.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politikus PDIP Junimart Girsang menilai surat yang diteken Wakil Ketua DPR Fadli Zon ke KPK tidak relevan. Junimart khawatir surat itu bentuk intervensi pimpinan dewan terhadap proses penegakan hukum.
+"Ini menyangkut etika sebenarnya. Karena ini bukan masalah lembaga, tentu tidak ada relevansinya," kata Junimart di Kompleks Parlemen, Senayan, Jakarta, Rabu 13 September 2017.  Surat yang diteken Fadli sebagai Korpolkam ini, pada intinya memuat permintaan penundaan penyidikan kasus KTP elektronik (KTP-el) dengan tersangka Ketua DPR Setya Novanto. Junimart menyarankan, jika benar Novanto berhalangan, agar surat permintaan itu seharusnya disampaikan oleh keluarga Novanto atau kuasa hukumnya.
+"Karena ini adalah masalah pribadi. Tidak ada hubungan dengan lembaga," ucap dia.
+Anggota Komisi III DPR ini mengingatkan agar ke depan tak ada lagi pejabat yang tak cermat dalam bersurat. Apalagi dengan lembaga penegak hukum terkait pengusutan kasus tertentu.
+"Saya berpendapat tentang etika seorang yang bisa bersurat kepada lembaga hukum, tentu dia punya kepentingan yang signifikan. Adanya surat dari DPR ke KPK untuk menunda pemeriksaan seseorang tentu harus ada dasar hukum dan etika yang jelas. Jangan sampai timbul persepsi intervensi," tandas dia.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anggota DPR dari Fraksi Partai Hanura, Fauzih H. Amro, mengakui bertemu dengan terdakwa korupsi suap di Kementerian PUPR Musa Zainuddin. Pertemuan dilakukan di luar jam besuk. 
+Hal itu terungkap saat Jaksa Penuntut Umum (JPU) KPK menanyakan pertemuan Fauzih dengan Musa. Mendapat pertanyaan itu, anggota Komisi V DPR itu sempat berkelit. Ia menyebut, sudah lama tidak bertemu Musa.  Namun, Fauzih akhirnya mengaku setelah jaksa membeberkan adanya pertemuan Fauzih dengan Musa di rumah sakit. Saat itu, Musa telah menyandang status terdakwa dan menjadi tahanan KPK.
+"Kemarin saat besuk. Karena saya sebagai sahabat menjenguk yang sakit," kata Fauzih dalam sidang di Pengadilan Tipikor Jakarta, Rabu 13 September 2017.
+Masih tak puas, Jaksa kembali bertanya jam besuk Fauzih. Sebab, ada informasi Fauzih menjenguk di luar jam besuk yang sudah ditetapkan KPK. 
+"Enggak tahu. Saya tanya ruangan pak Musa yang mana, saya masuk saja. Tidak ada pelarangan. Yang memberi tahu Pak Musa masih dirawat staf pak Musa, namanya Arum," jawab Fauzih.
+Fauzih menuturkan, pertemuan itu tidak berlangsung lama. Menurutnya, pertemuan hanya berlangsung sekitar 10-15 menit.
+Ketua Majelis Hakim Haryono yang mendengar pernyataan itu lantas mengingatkan terdakwa dan tim kuasa hukum. Hakim Haryono meminta mereka untuk tidak menyalahgunakan izin berobat untuk kepentingan yang lain.
+"Penasihat hukum tolong diperhatikan ya, jangan disalahgunakan. Kalau memang mau bertemu ada waktunya," kata Ketua Hakim Haryono.
+Dalam kasus ini, Jaksa KPK mendakwa Musa Zainudin menerima suap Rp7 miliar terkait proyek di bawah Kementerian Pekerjaan Umum dan Perumahan Rakyat (PUPR). Uang diberikan agar Musa selaku anggota Komisi V DPR memuluskan proyek pembangunan jalan di wilayah Balai Pelaksana Jalan Nasional (BPJN) IX Maluku dan Maluku Utara. Termasuk, penunjukan PT Windhu Tunggal Utama dan PT Cahaya Mas Perkasa sebagai pelaksana proyek.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kejaksaan Agung membantah berniat melemahkan Komisi Pemberantasan Korupsi (KPK) saat rapat dengar pendapat (RDP) dengan Komisi III DPR. Isu itu menyeruak seiring pernyataan Jaksa Agung M. Prasetyo yang menjawab pertanyaan DPR soal KPK.
+Kepala Pusat Penerangan Hukum (Kapuspenkum) Kejagung Muhammad Rum mengatakan, sederet pernyataan Prasetyo soal KPK hanya sebatas menjawab apa yang ditanyakan. Ia menyebut tak ada niat sedikit pun menguliti kinerja KPK di depan parlemen. "Itu dimaknai sepihak untuk melemahkan KPK. Tidak ada sedikit pun pernyataan, wacana ingin melemahkan lembaga penegak hukum itu enggak ada," tegas Rum di Kantor Kejagung, Jakarta Selatan, Rabu 13 September 2017.
+Rum menjelaskan, kapasitas Jaksa Agung dalam RDP dengan DPR hanya menjelaskan kinerja Kejaksaan. Prasetyo, kata dia, juga lebih banyak menjelaskan beberaoa kunjungan kerja ke lembaga penegak hukum negara lain.
+"KPK Hongkong, KPK Malaysia, dan Kejaksaan Agung Singapura. Disebutkan lah perbedaan sistem hukum yang ada. Apa yang dilakukan oleh mereka," ungkap dia.
+Jaksa Agung M. Prasetyo menyindir kewenangan penuntutan KPK. Meski sudah diberi kewenangan lebih, KPK belum mampu menyaingi indeks persepsi korupsi (IPK) yang diberikan institusi pemberantasan korupsi di negara-negara tetangga.
+"IPK pada 2016, Malaysia mendapat skor 49 dengan peringkat 55. Sedangkan Singapura mendapat skor 84 dengan peringkat 7 dari 170-an negara yang disurvei," kata Prasetyo dalam rapat dengar pendapat di Komisi III di Kompleks Parlemen, Senayan, Jakarta, Senin 11 September 2017.
+Prasetyo juga membandingkan kewenangan KPK dengan Suruhanjaya Pencegahan Rasuah Malaysia (SPRM) di Malaysia, dan Corrupt Practices Investigation Bureau (CPIB) di Singapura. Mereka mendapatkan hasil lebih baik kendati hanya memiliki fungsi penyelidikan dan penyidikan.
+Dia menjelaskan, Kewenangan penuntutan di Malaysia dan Singapura adalah milik penuh kejaksaan. Meskipun SPRM Malaysia juga punya divisi penuntutan, tetapi dalam pelaksanaannya harus ada izin dari jaksa agung Malaysia.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketua Umum Partai Demokrat Susilo Bambang Yudhoyono (SBY) menegaskan banyak 'penyakit' menjangkiti partai politik. Kolaborasi antara partai politik dan Komisi Pemberantasan Korupsi (KPK) dianggap tepat mencegah praktik koruptif.
+"Saya sudah mengatakan banyak penyakit politik dan demokrasi. Ya yang jelas kader-kader partai politik sebagian melakukan korupsi," kata SBY dalam pertemuan dengan KPK di DPP Demoktrat, Wisma Proklamasi 41, Jakarta Pusat, Rabu 13 September 2017.  Penyakit Politik, terang SBY, kerap terjadi ketika pilkada maupun pemilu melalui politik uang. Namun, kesalahan tak melulu ada pada kader parpol, melainkan aparat penegak hukum yang tak netral.
+"Kemudian kalau kita teruskan (kasusnya) aparat negara berpihak, yang mestinya netral terhadap semua partai politik, terhadap semua kandidat. Ini lah penyakit-penyakit politik dan demokrasi yang kita semua bangsa ini harus mencegah dan memberantasnya," beber dia.
+SBY memandang KPK memiliki peran sentral. Presiden ke-6 Indonesia itu menolak pelemahan KPK. Demokrat, tegas dia, mendukung penuh usaha KPK memberantas korupsi.
+"Saya tahu, saya bukan anak kemarin sore dalam dunia politik dan kehidupan bernegara dan pemerintahan. Apa pun alasannya, dalihnya, kalau itu untuk melemahkan KPK, rakyat tahu, kita tahu, dan Demokrat sekali lagi menolak pelemahan KPK," ucap dia.
+</t>
   </si>
 </sst>
 </file>
@@ -2273,14 +2819,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF216CB-8FA8-4537-BC0A-A8CB8334EC87}">
   <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="125.42578125" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2587,8 +3133,11 @@
       <c r="B22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2598,8 +3147,11 @@
       <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,8 +3161,11 @@
       <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2620,8 +3175,11 @@
       <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,8 +3189,11 @@
       <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2642,8 +3203,11 @@
       <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>76</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,8 +3217,11 @@
       <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>79</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2664,8 +3231,11 @@
       <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,8 +3245,11 @@
       <c r="B30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>85</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2686,8 +3259,11 @@
       <c r="B31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2697,209 +3273,266 @@
       <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>96</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>99</v>
       </c>
       <c r="B34" t="s">
         <v>98</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>102</v>
       </c>
       <c r="B35" t="s">
         <v>101</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>105</v>
       </c>
       <c r="B36" t="s">
         <v>104</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>108</v>
       </c>
       <c r="B37" t="s">
         <v>107</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>111</v>
       </c>
       <c r="B38" t="s">
         <v>110</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>114</v>
       </c>
       <c r="B39" t="s">
         <v>113</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>117</v>
       </c>
       <c r="B40" t="s">
         <v>116</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>120</v>
       </c>
       <c r="B41" t="s">
         <v>119</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>123</v>
       </c>
       <c r="B42" t="s">
         <v>122</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>126</v>
       </c>
       <c r="B43" t="s">
         <v>125</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>129</v>
       </c>
       <c r="B44" t="s">
         <v>128</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>132</v>
       </c>
       <c r="B45" t="s">
         <v>131</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>135</v>
       </c>
       <c r="B46" t="s">
         <v>134</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>138</v>
       </c>
       <c r="B47" t="s">
         <v>137</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>141</v>
       </c>
       <c r="B48" t="s">
         <v>140</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>144</v>
       </c>
       <c r="B49" t="s">
         <v>143</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>147</v>
       </c>
       <c r="B50" t="s">
         <v>146</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -2910,7 +3543,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -2921,7 +3554,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -2932,7 +3565,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -2943,7 +3576,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -2954,7 +3587,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>165</v>
       </c>
@@ -2965,7 +3598,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -2976,7 +3609,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>171</v>
       </c>
@@ -2987,7 +3620,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>174</v>
       </c>
@@ -2998,7 +3631,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>177</v>
       </c>
@@ -3009,7 +3642,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>180</v>
       </c>
@@ -3020,7 +3653,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>183</v>
       </c>
@@ -3031,7 +3664,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -3042,7 +3675,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -3229,7 +3862,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -3240,7 +3873,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>241</v>
       </c>
@@ -3251,7 +3884,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -3262,7 +3895,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>247</v>
       </c>
@@ -3273,7 +3906,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>250</v>
       </c>
@@ -3284,7 +3917,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>253</v>
       </c>
@@ -3295,7 +3928,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>256</v>
       </c>
@@ -3306,7 +3939,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>259</v>
       </c>
@@ -3317,7 +3950,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>262</v>
       </c>
@@ -3328,81 +3961,102 @@
         <v>260</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>265</v>
       </c>
       <c r="B90" t="s">
         <v>264</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>268</v>
       </c>
       <c r="B91" t="s">
         <v>267</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>271</v>
       </c>
       <c r="B92" t="s">
         <v>328</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>273</v>
       </c>
       <c r="B93" t="s">
         <v>327</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>275</v>
       </c>
       <c r="B94" t="s">
         <v>326</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>277</v>
       </c>
       <c r="B95" t="s">
         <v>325</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>279</v>
       </c>
       <c r="B96" t="s">
         <v>325</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>278</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3412,8 +4066,11 @@
       <c r="B97" t="s">
         <v>324</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>280</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,8 +4080,11 @@
       <c r="B98" t="s">
         <v>323</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>282</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3434,8 +4094,11 @@
       <c r="B99" t="s">
         <v>322</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>284</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3445,8 +4108,11 @@
       <c r="B100" t="s">
         <v>321</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>286</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3456,8 +4122,11 @@
       <c r="B101" t="s">
         <v>320</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>288</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,8 +4136,11 @@
       <c r="B102" t="s">
         <v>319</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>290</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3478,8 +4150,11 @@
       <c r="B103" t="s">
         <v>318</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>292</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3489,8 +4164,11 @@
       <c r="B104" t="s">
         <v>317</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>294</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3500,8 +4178,11 @@
       <c r="B105" t="s">
         <v>316</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>296</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3511,8 +4192,11 @@
       <c r="B106" t="s">
         <v>315</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>298</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3522,8 +4206,11 @@
       <c r="B107" t="s">
         <v>314</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>300</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3533,8 +4220,11 @@
       <c r="B108" t="s">
         <v>313</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>302</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,8 +4234,11 @@
       <c r="B109" t="s">
         <v>312</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>304</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,6 +4833,55 @@
     <hyperlink ref="C115" r:id="rId56" xr:uid="{17C5BCAE-5E3E-4642-BCC7-B98A9D1FBB60}"/>
     <hyperlink ref="C113" r:id="rId57" xr:uid="{BB1957FC-9E20-4874-9252-E60E43F0D153}"/>
     <hyperlink ref="C114" r:id="rId58" xr:uid="{AFA09257-BE51-4D9B-8051-CE067567EDC7}"/>
+    <hyperlink ref="C22" r:id="rId59" xr:uid="{22BFF34B-02E5-4EB6-B077-A481D7706D42}"/>
+    <hyperlink ref="C23" r:id="rId60" xr:uid="{5D8727CD-8F98-4462-8781-AAFFB87CED58}"/>
+    <hyperlink ref="C109" r:id="rId61" xr:uid="{B9EAC462-70D6-461C-B0F0-B8424DF3E984}"/>
+    <hyperlink ref="C108" r:id="rId62" xr:uid="{4D849FBB-F45F-4FB7-8A4D-1EF614BC79BC}"/>
+    <hyperlink ref="C107" r:id="rId63" xr:uid="{D3A382AC-0539-4A70-8B94-5D201853564F}"/>
+    <hyperlink ref="C106" r:id="rId64" xr:uid="{4CB46A9E-1A8E-4636-9CFD-BC111B0976EC}"/>
+    <hyperlink ref="C105" r:id="rId65" xr:uid="{D083F856-3DF2-4100-92F0-F038C400F90D}"/>
+    <hyperlink ref="C104" r:id="rId66" xr:uid="{B7F304E6-F770-4765-BE3D-2D26A63D16F6}"/>
+    <hyperlink ref="C103" r:id="rId67" xr:uid="{AEB9578E-72F6-4305-895B-EB3AE9BED38B}"/>
+    <hyperlink ref="C102" r:id="rId68" xr:uid="{7C401645-C690-4731-A268-C54C8AF19BD3}"/>
+    <hyperlink ref="C101" r:id="rId69" xr:uid="{A1CC9685-D806-4DBA-8545-AFE3332DD9F0}"/>
+    <hyperlink ref="C100" r:id="rId70" xr:uid="{9279FDF1-1ED3-4E26-B913-C6A58242693B}"/>
+    <hyperlink ref="C99" r:id="rId71" xr:uid="{51B9CA14-C7A0-42D5-916E-98F4D4872EB6}"/>
+    <hyperlink ref="C98" r:id="rId72" xr:uid="{5F18CC13-486E-46F7-A486-AFF19F6EBAD0}"/>
+    <hyperlink ref="C97" r:id="rId73" xr:uid="{4CA57897-7B8D-4E48-99F1-8E6F3CAAB840}"/>
+    <hyperlink ref="C96" r:id="rId74" xr:uid="{2A4EB6C4-7EB2-4555-8B98-BEC46FCBAFF9}"/>
+    <hyperlink ref="C95" r:id="rId75" xr:uid="{9BE39A57-BDE8-44C5-8E51-68F168029AF2}"/>
+    <hyperlink ref="C94" r:id="rId76" xr:uid="{69C4E7F5-157E-47FF-899D-146E594987C1}"/>
+    <hyperlink ref="C93" r:id="rId77" xr:uid="{BA2E6E14-A347-4B54-9055-2EE288893491}"/>
+    <hyperlink ref="C92" r:id="rId78" xr:uid="{1775E430-77A7-4A01-BD8B-AE8D50318A8B}"/>
+    <hyperlink ref="C91" r:id="rId79" xr:uid="{BDF4EF85-9B8E-4A82-96F9-8EF80C2EC7DE}"/>
+    <hyperlink ref="C90" r:id="rId80" xr:uid="{F65B9377-C4A1-474B-966E-B8D7B76BA377}"/>
+    <hyperlink ref="C24" r:id="rId81" xr:uid="{AFCF7C0F-DEF1-4E4D-B377-E54983B83605}"/>
+    <hyperlink ref="C25" r:id="rId82" xr:uid="{97939A2E-79A8-46DA-B5EA-D7178CF51D99}"/>
+    <hyperlink ref="C26" r:id="rId83" xr:uid="{6E9B129F-779C-4070-9AEE-C430F1001331}"/>
+    <hyperlink ref="C27" r:id="rId84" xr:uid="{604B7066-E3B0-4E11-828D-09730DF6025F}"/>
+    <hyperlink ref="C28" r:id="rId85" xr:uid="{1CDBF0C4-06BC-44FE-B4DB-50956E64B804}"/>
+    <hyperlink ref="C29" r:id="rId86" xr:uid="{E83C2BE8-C90E-482A-AF50-E43A5A7DA871}"/>
+    <hyperlink ref="C30" r:id="rId87" xr:uid="{3A4022D8-1268-4C1A-8C53-65672D276AB6}"/>
+    <hyperlink ref="C31" r:id="rId88" xr:uid="{C3F6DF88-27D8-4233-8DB7-188966CE94DF}"/>
+    <hyperlink ref="C32" r:id="rId89" xr:uid="{53F0F3B1-75BF-4BEB-9C89-F8CCEE78AB61}"/>
+    <hyperlink ref="C33" r:id="rId90" xr:uid="{90D90176-69C7-49DC-BE2B-83BF5A81AF0C}"/>
+    <hyperlink ref="C34" r:id="rId91" xr:uid="{A9EF856E-6A57-481B-9079-9B9F53C5F3CB}"/>
+    <hyperlink ref="C35" r:id="rId92" xr:uid="{A7E84385-8B1D-4A44-83E8-E6F3DC3A4E32}"/>
+    <hyperlink ref="C36" r:id="rId93" xr:uid="{1493D985-5915-4A1B-A16C-0769A9CCAB35}"/>
+    <hyperlink ref="C37" r:id="rId94" xr:uid="{CAE6B0F4-75CC-467B-BC0A-2F07A1D001C6}"/>
+    <hyperlink ref="C38" r:id="rId95" xr:uid="{A7ABBC94-9F4F-49DF-8A75-C8804B1C127B}"/>
+    <hyperlink ref="C39" r:id="rId96" xr:uid="{5C668978-885B-4B64-A736-941DFFF28C12}"/>
+    <hyperlink ref="C40" r:id="rId97" xr:uid="{FD5CE5A0-147B-4197-BFC9-584AA802B68B}"/>
+    <hyperlink ref="C41" r:id="rId98" xr:uid="{F4F7E4B4-854E-4B0D-941E-3E35C1BBB7BB}"/>
+    <hyperlink ref="C42" r:id="rId99" xr:uid="{3F20B133-A6E3-4679-862C-98FA05844250}"/>
+    <hyperlink ref="C43" r:id="rId100" xr:uid="{689BECF9-CAED-4BED-919C-CAEF5A1A0C66}"/>
+    <hyperlink ref="C44" r:id="rId101" xr:uid="{E9480B02-C4D9-4191-AF8A-54CF61800D17}"/>
+    <hyperlink ref="C45" r:id="rId102" xr:uid="{3C44481E-D834-4105-AACA-F43A84324D3C}"/>
+    <hyperlink ref="C46" r:id="rId103" xr:uid="{546DBBF0-BCAA-4B88-87AC-C2730302CA66}"/>
+    <hyperlink ref="C47" r:id="rId104" xr:uid="{E2E3CE7F-56FF-42DA-8425-850D28B5F63B}"/>
+    <hyperlink ref="C48" r:id="rId105" xr:uid="{F81FC83B-CA1C-4FC7-B690-BAC9E270F9DB}"/>
+    <hyperlink ref="C49" r:id="rId106" xr:uid="{1BD34C4E-3F2E-481C-BE53-B87E59A5A354}"/>
+    <hyperlink ref="C50" r:id="rId107" xr:uid="{5CACE6D9-ACC9-41BC-8D4D-88182E621079}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
